--- a/output/output-11月考勤.xlsx
+++ b/output/output-11月考勤.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Ra3203a6e6d0a4deea713195937b0a1e9"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rc3b04f0640ca42c582cf7758b843313c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -167,7 +167,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G2" t="str" s="2">
-        <x:v>2022-11-01 08:19:50</x:v>
+        <x:v>2022-11-01 08:22:33</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -190,7 +190,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G3" t="str" s="2">
-        <x:v>2022-11-01 18:56:45</x:v>
+        <x:v>2022-11-01 20:55:16</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -213,7 +213,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G4" t="str" s="2">
-        <x:v>2022-11-02 08:05:33</x:v>
+        <x:v>2022-11-02 08:22:44</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -236,7 +236,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G5" t="str" s="2">
-        <x:v>2022-11-02 18:48:59</x:v>
+        <x:v>2022-11-02 20:56:48</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -259,7 +259,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G6" t="str" s="2">
-        <x:v>2022-11-03 08:13:22</x:v>
+        <x:v>2022-11-03 08:24:32</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -282,7 +282,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G7" t="str" s="2">
-        <x:v>2022-11-03 20:22:28</x:v>
+        <x:v>2022-11-03 22:28:06</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -305,7 +305,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G8" t="str" s="2">
-        <x:v>2022-11-04 08:18:45</x:v>
+        <x:v>2022-11-04 08:28:08</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -328,7 +328,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G9" t="str" s="2">
-        <x:v>2022-11-04 19:03:15</x:v>
+        <x:v>2022-11-04 21:00:46</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -351,7 +351,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G10" t="str" s="2">
-        <x:v>2022-11-05 08:09:44</x:v>
+        <x:v>2022-11-05 08:23:02</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -374,7 +374,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G11" t="str" s="2">
-        <x:v>2022-11-05 18:54:11</x:v>
+        <x:v>2022-11-05 20:54:18</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -397,7 +397,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G12" t="str" s="2">
-        <x:v>2022-11-07 08:24:21</x:v>
+        <x:v>2022-11-07 08:26:18</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -420,7 +420,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G13" t="str" s="2">
-        <x:v>2022-11-07 18:59:46</x:v>
+        <x:v>2022-11-07 20:58:12</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -443,7 +443,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G14" t="str" s="2">
-        <x:v>2022-11-08 08:09:32</x:v>
+        <x:v>2022-11-08 08:20:35</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -466,7 +466,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G15" t="str" s="2">
-        <x:v>2022-11-08 20:15:15</x:v>
+        <x:v>2022-11-08 22:23:01</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -489,7 +489,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G16" t="str" s="2">
-        <x:v>2022-11-09 08:14:38</x:v>
+        <x:v>2022-11-09 08:20:42</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -512,7 +512,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G17" t="str" s="2">
-        <x:v>2022-11-09 18:44:43</x:v>
+        <x:v>2022-11-09 20:53:47</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -535,7 +535,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G18" t="str" s="2">
-        <x:v>2022-11-10 08:15:09</x:v>
+        <x:v>2022-11-10 08:24:51</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -558,7 +558,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G19" t="str" s="2">
-        <x:v>2022-11-10 18:46:54</x:v>
+        <x:v>2022-11-10 20:59:18</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -581,7 +581,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G20" t="str" s="2">
-        <x:v>2022-11-11 08:05:34</x:v>
+        <x:v>2022-11-11 08:23:10</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -604,7 +604,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G21" t="str" s="2">
-        <x:v>2022-11-11 16:13:53</x:v>
+        <x:v>2022-11-11 17:54:40</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -627,7 +627,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G22" t="str" s="2">
-        <x:v>2022-11-12 08:21:37</x:v>
+        <x:v>2022-11-12 08:28:35</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -650,7 +650,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G23" t="str" s="2">
-        <x:v>2022-11-12 18:56:13</x:v>
+        <x:v>2022-11-12 21:00:17</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -673,7 +673,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G24" t="str" s="2">
-        <x:v>2022-11-13 08:14:22</x:v>
+        <x:v>2022-11-13 08:20:58</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -696,7 +696,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G25" t="str" s="2">
-        <x:v>2022-11-13 16:27:57</x:v>
+        <x:v>2022-11-13 17:52:38</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -719,7 +719,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G26" t="str" s="2">
-        <x:v>2022-11-15 08:24:28</x:v>
+        <x:v>2022-11-15 08:20:18</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -742,7 +742,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G27" t="str" s="2">
-        <x:v>2022-11-15 19:09:23</x:v>
+        <x:v>2022-11-15 20:54:47</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -765,7 +765,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G28" t="str" s="2">
-        <x:v>2022-11-16 08:18:41</x:v>
+        <x:v>2022-11-16 08:27:53</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -788,7 +788,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G29" t="str" s="2">
-        <x:v>2022-11-16 19:01:03</x:v>
+        <x:v>2022-11-16 21:01:17</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -811,7 +811,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G30" t="str" s="2">
-        <x:v>2022-11-17 08:09:08</x:v>
+        <x:v>2022-11-17 08:26:31</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -834,7 +834,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G31" t="str" s="2">
-        <x:v>2022-11-17 18:47:37</x:v>
+        <x:v>2022-11-17 20:57:37</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
@@ -857,7 +857,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G32" t="str" s="2">
-        <x:v>2022-11-18 08:27:15</x:v>
+        <x:v>2022-11-18 08:28:47</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
@@ -880,7 +880,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G33" t="str" s="2">
-        <x:v>2022-11-18 16:36:00</x:v>
+        <x:v>2022-11-18 18:00:50</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
@@ -903,7 +903,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G34" t="str" s="2">
-        <x:v>2022-11-19 08:15:11</x:v>
+        <x:v>2022-11-19 08:26:11</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
@@ -926,7 +926,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G35" t="str" s="2">
-        <x:v>2022-11-19 18:57:16</x:v>
+        <x:v>2022-11-19 20:56:40</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
@@ -949,7 +949,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G36" t="str" s="2">
-        <x:v>2022-11-21 08:16:22</x:v>
+        <x:v>2022-11-21 08:28:26</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
@@ -972,7 +972,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G37" t="str" s="2">
-        <x:v>2022-11-21 19:01:02</x:v>
+        <x:v>2022-11-21 20:59:04</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
@@ -995,7 +995,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G38" t="str" s="2">
-        <x:v>2022-11-22 08:10:28</x:v>
+        <x:v>2022-11-22 08:22:50</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
@@ -1018,7 +1018,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G39" t="str" s="2">
-        <x:v>2022-11-22 18:55:22</x:v>
+        <x:v>2022-11-22 20:55:50</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
@@ -1041,7 +1041,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G40" t="str" s="2">
-        <x:v>2022-11-23 08:25:17</x:v>
+        <x:v>2022-11-23 08:24:02</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
@@ -1064,7 +1064,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G41" t="str" s="2">
-        <x:v>2022-11-23 19:08:09</x:v>
+        <x:v>2022-11-23 20:54:13</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
@@ -1087,7 +1087,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G42" t="str" s="2">
-        <x:v>2022-11-24 08:08:03</x:v>
+        <x:v>2022-11-24 08:28:38</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
@@ -1110,7 +1110,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G43" t="str" s="2">
-        <x:v>2022-11-24 18:41:09</x:v>
+        <x:v>2022-11-24 20:58:47</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
@@ -1133,7 +1133,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G44" t="str" s="2">
-        <x:v>2022-11-25 08:18:03</x:v>
+        <x:v>2022-11-25 08:21:39</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
@@ -1156,7 +1156,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G45" t="str" s="2">
-        <x:v>2022-11-25 18:52:37</x:v>
+        <x:v>2022-11-25 20:53:56</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
@@ -1179,7 +1179,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G46" t="str" s="2">
-        <x:v>2022-11-26 08:11:28</x:v>
+        <x:v>2022-11-26 08:22:50</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
@@ -1202,7 +1202,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G47" t="str" s="2">
-        <x:v>2022-11-26 18:48:07</x:v>
+        <x:v>2022-11-26 20:55:23</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
@@ -1225,7 +1225,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G48" t="str" s="2">
-        <x:v>2022-11-28 08:22:52</x:v>
+        <x:v>2022-11-28 08:26:47</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
@@ -1248,7 +1248,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G49" t="str" s="2">
-        <x:v>2022-11-28 18:53:01</x:v>
+        <x:v>2022-11-28 20:59:21</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
@@ -1271,7 +1271,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G50" t="str" s="2">
-        <x:v>2022-11-29 08:17:15</x:v>
+        <x:v>2022-11-29 08:26:15</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
@@ -1294,7 +1294,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G51" t="str" s="2">
-        <x:v>2022-11-29 18:53:33</x:v>
+        <x:v>2022-11-29 20:57:22</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
@@ -1317,7 +1317,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G52" t="str" s="2">
-        <x:v>2022-11-30 08:17:25</x:v>
+        <x:v>2022-11-30 08:25:56</x:v>
       </x:c>
     </x:row>
     <x:row r="53">
@@ -1340,7 +1340,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G53" t="str" s="2">
-        <x:v>2022-11-30 18:52:27</x:v>
+        <x:v>2022-11-30 20:57:52</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
@@ -1363,7 +1363,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G54" t="str" s="2">
-        <x:v>2022-11-01 08:11:04</x:v>
+        <x:v>2022-11-01 08:25:04</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
@@ -1386,7 +1386,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G55" t="str" s="2">
-        <x:v>2022-11-01 16:20:26</x:v>
+        <x:v>2022-11-01 17:58:16</x:v>
       </x:c>
     </x:row>
     <x:row r="56">
@@ -1409,7 +1409,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G56" t="str" s="2">
-        <x:v>2022-11-03 08:28:47</x:v>
+        <x:v>2022-11-03 08:27:26</x:v>
       </x:c>
     </x:row>
     <x:row r="57">
@@ -1432,7 +1432,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G57" t="str" s="2">
-        <x:v>2022-11-03 20:37:47</x:v>
+        <x:v>2022-11-03 22:28:22</x:v>
       </x:c>
     </x:row>
     <x:row r="58">
@@ -1455,7 +1455,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G58" t="str" s="2">
-        <x:v>2022-11-04 08:15:58</x:v>
+        <x:v>2022-11-04 08:23:19</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
@@ -1478,7 +1478,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G59" t="str" s="2">
-        <x:v>2022-11-04 16:16:31</x:v>
+        <x:v>2022-11-04 17:53:22</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
@@ -1501,7 +1501,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G60" t="str" s="2">
-        <x:v>2022-11-05 08:10:19</x:v>
+        <x:v>2022-11-05 08:20:02</x:v>
       </x:c>
     </x:row>
     <x:row r="61">
@@ -1524,7 +1524,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G61" t="str" s="2">
-        <x:v>2022-11-05 18:45:59</x:v>
+        <x:v>2022-11-05 20:53:31</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
@@ -1547,7 +1547,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G62" t="str" s="2">
-        <x:v>2022-11-07 08:18:06</x:v>
+        <x:v>2022-11-07 08:20:03</x:v>
       </x:c>
     </x:row>
     <x:row r="63">
@@ -1570,7 +1570,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G63" t="str" s="2">
-        <x:v>2022-11-07 18:48:49</x:v>
+        <x:v>2022-11-07 20:51:30</x:v>
       </x:c>
     </x:row>
     <x:row r="64">
@@ -1593,7 +1593,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G64" t="str" s="2">
-        <x:v>2022-11-09 08:17:53</x:v>
+        <x:v>2022-11-09 08:20:49</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
@@ -1616,7 +1616,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G65" t="str" s="2">
-        <x:v>2022-11-09 16:28:35</x:v>
+        <x:v>2022-11-09 17:54:34</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
@@ -1639,7 +1639,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G66" t="str" s="2">
-        <x:v>2022-11-10 08:07:09</x:v>
+        <x:v>2022-11-10 08:20:49</x:v>
       </x:c>
     </x:row>
     <x:row r="67">
@@ -1662,7 +1662,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G67" t="str" s="2">
-        <x:v>2022-11-10 18:39:22</x:v>
+        <x:v>2022-11-10 20:50:49</x:v>
       </x:c>
     </x:row>
     <x:row r="68">
@@ -1685,7 +1685,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G68" t="str" s="2">
-        <x:v>2022-11-11 08:23:10</x:v>
+        <x:v>2022-11-11 08:20:27</x:v>
       </x:c>
     </x:row>
     <x:row r="69">
@@ -1708,7 +1708,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G69" t="str" s="2">
-        <x:v>2022-11-11 18:58:26</x:v>
+        <x:v>2022-11-11 20:51:24</x:v>
       </x:c>
     </x:row>
     <x:row r="70">
@@ -1731,7 +1731,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G70" t="str" s="2">
-        <x:v>2022-11-12 08:24:55</x:v>
+        <x:v>2022-11-12 08:24:18</x:v>
       </x:c>
     </x:row>
     <x:row r="71">
@@ -1754,7 +1754,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G71" t="str" s="2">
-        <x:v>2022-11-12 16:37:42</x:v>
+        <x:v>2022-11-12 17:54:44</x:v>
       </x:c>
     </x:row>
     <x:row r="72">
@@ -1777,7 +1777,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G72" t="str" s="2">
-        <x:v>2022-11-14 08:13:10</x:v>
+        <x:v>2022-11-14 08:21:06</x:v>
       </x:c>
     </x:row>
     <x:row r="73">
@@ -1800,7 +1800,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G73" t="str" s="2">
-        <x:v>2022-11-14 18:49:31</x:v>
+        <x:v>2022-11-14 20:52:26</x:v>
       </x:c>
     </x:row>
     <x:row r="74">
@@ -1823,7 +1823,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G74" t="str" s="2">
-        <x:v>2022-11-15 08:21:55</x:v>
+        <x:v>2022-11-15 08:24:09</x:v>
       </x:c>
     </x:row>
     <x:row r="75">
@@ -1846,7 +1846,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G75" t="str" s="2">
-        <x:v>2022-11-15 18:56:39</x:v>
+        <x:v>2022-11-15 20:58:25</x:v>
       </x:c>
     </x:row>
     <x:row r="76">
@@ -1869,7 +1869,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G76" t="str" s="2">
-        <x:v>2022-11-16 08:09:51</x:v>
+        <x:v>2022-11-16 08:24:19</x:v>
       </x:c>
     </x:row>
     <x:row r="77">
@@ -1892,7 +1892,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G77" t="str" s="2">
-        <x:v>2022-11-16 18:41:28</x:v>
+        <x:v>2022-11-16 20:57:45</x:v>
       </x:c>
     </x:row>
     <x:row r="78">
@@ -1915,7 +1915,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G78" t="str" s="2">
-        <x:v>2022-11-17 08:28:20</x:v>
+        <x:v>2022-11-17 08:21:09</x:v>
       </x:c>
     </x:row>
     <x:row r="79">
@@ -1938,7 +1938,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G79" t="str" s="2">
-        <x:v>2022-11-17 19:00:25</x:v>
+        <x:v>2022-11-17 20:54:53</x:v>
       </x:c>
     </x:row>
     <x:row r="80">
@@ -1961,7 +1961,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G80" t="str" s="2">
-        <x:v>2022-11-18 08:24:51</x:v>
+        <x:v>2022-11-18 08:24:54</x:v>
       </x:c>
     </x:row>
     <x:row r="81">
@@ -1984,7 +1984,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G81" t="str" s="2">
-        <x:v>2022-11-18 16:29:54</x:v>
+        <x:v>2022-11-18 17:57:48</x:v>
       </x:c>
     </x:row>
     <x:row r="82">
@@ -2007,7 +2007,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G82" t="str" s="2">
-        <x:v>2022-11-19 08:21:24</x:v>
+        <x:v>2022-11-19 08:24:05</x:v>
       </x:c>
     </x:row>
     <x:row r="83">
@@ -2030,7 +2030,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G83" t="str" s="2">
-        <x:v>2022-11-19 18:59:20</x:v>
+        <x:v>2022-11-19 20:55:46</x:v>
       </x:c>
     </x:row>
     <x:row r="84">
@@ -2053,7 +2053,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G84" t="str" s="2">
-        <x:v>2022-11-21 08:17:35</x:v>
+        <x:v>2022-11-21 08:26:29</x:v>
       </x:c>
     </x:row>
     <x:row r="85">
@@ -2076,7 +2076,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G85" t="str" s="2">
-        <x:v>2022-11-21 16:25:41</x:v>
+        <x:v>2022-11-21 17:57:53</x:v>
       </x:c>
     </x:row>
     <x:row r="86">
@@ -2099,7 +2099,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G86" t="str" s="2">
-        <x:v>2022-11-23 08:11:44</x:v>
+        <x:v>2022-11-23 08:23:01</x:v>
       </x:c>
     </x:row>
     <x:row r="87">
@@ -2122,7 +2122,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G87" t="str" s="2">
-        <x:v>2022-11-23 18:43:56</x:v>
+        <x:v>2022-11-23 20:53:23</x:v>
       </x:c>
     </x:row>
     <x:row r="88">
@@ -2145,7 +2145,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G88" t="str" s="2">
-        <x:v>2022-11-24 08:16:00</x:v>
+        <x:v>2022-11-24 08:24:40</x:v>
       </x:c>
     </x:row>
     <x:row r="89">
@@ -2168,7 +2168,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G89" t="str" s="2">
-        <x:v>2022-11-24 18:52:44</x:v>
+        <x:v>2022-11-24 20:56:08</x:v>
       </x:c>
     </x:row>
     <x:row r="90">
@@ -2191,7 +2191,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G90" t="str" s="2">
-        <x:v>2022-11-25 08:05:18</x:v>
+        <x:v>2022-11-25 08:21:48</x:v>
       </x:c>
     </x:row>
     <x:row r="91">
@@ -2214,7 +2214,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G91" t="str" s="2">
-        <x:v>2022-11-25 18:45:25</x:v>
+        <x:v>2022-11-25 20:55:07</x:v>
       </x:c>
     </x:row>
     <x:row r="92">
@@ -2237,7 +2237,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G92" t="str" s="2">
-        <x:v>2022-11-28 08:19:33</x:v>
+        <x:v>2022-11-28 08:27:20</x:v>
       </x:c>
     </x:row>
     <x:row r="93">
@@ -2260,7 +2260,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G93" t="str" s="2">
-        <x:v>2022-11-28 16:28:52</x:v>
+        <x:v>2022-11-28 18:01:05</x:v>
       </x:c>
     </x:row>
     <x:row r="94">
@@ -2283,7 +2283,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G94" t="str" s="2">
-        <x:v>2022-11-29 08:28:16</x:v>
+        <x:v>2022-11-29 08:20:26</x:v>
       </x:c>
     </x:row>
     <x:row r="95">
@@ -2306,7 +2306,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G95" t="str" s="2">
-        <x:v>2022-11-29 16:41:23</x:v>
+        <x:v>2022-11-29 17:50:36</x:v>
       </x:c>
     </x:row>
     <x:row r="96">
@@ -2329,7 +2329,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G96" t="str" s="2">
-        <x:v>2022-11-30 08:22:52</x:v>
+        <x:v>2022-11-30 08:22:21</x:v>
       </x:c>
     </x:row>
     <x:row r="97">
@@ -2352,7 +2352,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G97" t="str" s="2">
-        <x:v>2022-11-30 18:57:27</x:v>
+        <x:v>2022-11-30 20:55:38</x:v>
       </x:c>
     </x:row>
     <x:row r="98">
@@ -2375,7 +2375,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G98" t="str" s="2">
-        <x:v>2022-11-01 08:22:53</x:v>
+        <x:v>2022-11-01 08:26:47</x:v>
       </x:c>
     </x:row>
     <x:row r="99">
@@ -2398,7 +2398,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G99" t="str" s="2">
-        <x:v>2022-11-01 18:55:12</x:v>
+        <x:v>2022-11-01 21:00:20</x:v>
       </x:c>
     </x:row>
     <x:row r="100">
@@ -2421,7 +2421,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G100" t="str" s="2">
-        <x:v>2022-11-02 08:23:17</x:v>
+        <x:v>2022-11-02 08:23:47</x:v>
       </x:c>
     </x:row>
     <x:row r="101">
@@ -2444,7 +2444,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G101" t="str" s="2">
-        <x:v>2022-11-02 19:02:56</x:v>
+        <x:v>2022-11-02 20:55:29</x:v>
       </x:c>
     </x:row>
     <x:row r="102">
@@ -2467,7 +2467,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G102" t="str" s="2">
-        <x:v>2022-11-04 08:18:54</x:v>
+        <x:v>2022-11-04 08:25:36</x:v>
       </x:c>
     </x:row>
     <x:row r="103">
@@ -2490,7 +2490,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G103" t="str" s="2">
-        <x:v>2022-11-04 18:55:49</x:v>
+        <x:v>2022-11-04 20:57:30</x:v>
       </x:c>
     </x:row>
     <x:row r="104">
@@ -2513,7 +2513,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G104" t="str" s="2">
-        <x:v>2022-11-05 08:09:03</x:v>
+        <x:v>2022-11-05 08:22:25</x:v>
       </x:c>
     </x:row>
     <x:row r="105">
@@ -2536,7 +2536,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G105" t="str" s="2">
-        <x:v>2022-11-05 18:41:52</x:v>
+        <x:v>2022-11-05 20:57:03</x:v>
       </x:c>
     </x:row>
     <x:row r="106">
@@ -2559,7 +2559,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G106" t="str" s="2">
-        <x:v>2022-11-07 08:13:13</x:v>
+        <x:v>2022-11-07 08:23:23</x:v>
       </x:c>
     </x:row>
     <x:row r="107">
@@ -2582,7 +2582,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G107" t="str" s="2">
-        <x:v>2022-11-07 16:22:56</x:v>
+        <x:v>2022-11-07 17:54:28</x:v>
       </x:c>
     </x:row>
     <x:row r="108">
@@ -2605,7 +2605,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G108" t="str" s="2">
-        <x:v>2022-11-08 08:07:00</x:v>
+        <x:v>2022-11-08 08:26:46</x:v>
       </x:c>
     </x:row>
     <x:row r="109">
@@ -2628,7 +2628,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G109" t="str" s="2">
-        <x:v>2022-11-08 20:13:50</x:v>
+        <x:v>2022-11-08 22:29:29</x:v>
       </x:c>
     </x:row>
     <x:row r="110">
@@ -2651,7 +2651,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G110" t="str" s="2">
-        <x:v>2022-11-09 08:28:39</x:v>
+        <x:v>2022-11-09 08:28:20</x:v>
       </x:c>
     </x:row>
     <x:row r="111">
@@ -2674,7 +2674,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G111" t="str" s="2">
-        <x:v>2022-11-09 16:42:36</x:v>
+        <x:v>2022-11-09 18:01:10</x:v>
       </x:c>
     </x:row>
     <x:row r="112">
@@ -2697,7 +2697,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G112" t="str" s="2">
-        <x:v>2022-11-10 08:27:55</x:v>
+        <x:v>2022-11-10 08:25:40</x:v>
       </x:c>
     </x:row>
     <x:row r="113">
@@ -2720,7 +2720,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G113" t="str" s="2">
-        <x:v>2022-11-10 19:00:02</x:v>
+        <x:v>2022-11-10 21:00:17</x:v>
       </x:c>
     </x:row>
     <x:row r="114">
@@ -2743,7 +2743,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G114" t="str" s="2">
-        <x:v>2022-11-11 08:25:38</x:v>
+        <x:v>2022-11-11 08:21:20</x:v>
       </x:c>
     </x:row>
     <x:row r="115">
@@ -2766,7 +2766,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G115" t="str" s="2">
-        <x:v>2022-11-11 16:25:49</x:v>
+        <x:v>2022-11-11 17:54:09</x:v>
       </x:c>
     </x:row>
     <x:row r="116">
@@ -2789,7 +2789,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G116" t="str" s="2">
-        <x:v>2022-11-12 08:19:46</x:v>
+        <x:v>2022-11-12 08:20:58</x:v>
       </x:c>
     </x:row>
     <x:row r="117">
@@ -2812,7 +2812,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G117" t="str" s="2">
-        <x:v>2022-11-12 18:53:23</x:v>
+        <x:v>2022-11-12 20:54:37</x:v>
       </x:c>
     </x:row>
     <x:row r="118">
@@ -2835,7 +2835,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G118" t="str" s="2">
-        <x:v>2022-11-13 08:26:34</x:v>
+        <x:v>2022-11-13 08:23:25</x:v>
       </x:c>
     </x:row>
     <x:row r="119">
@@ -2858,7 +2858,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G119" t="str" s="2">
-        <x:v>2022-11-13 16:34:40</x:v>
+        <x:v>2022-11-13 17:53:44</x:v>
       </x:c>
     </x:row>
     <x:row r="120">
@@ -2881,7 +2881,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G120" t="str" s="2">
-        <x:v>2022-11-14 08:10:12</x:v>
+        <x:v>2022-11-14 08:24:51</x:v>
       </x:c>
     </x:row>
     <x:row r="121">
@@ -2904,7 +2904,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G121" t="str" s="2">
-        <x:v>2022-11-14 16:13:22</x:v>
+        <x:v>2022-11-14 17:58:22</x:v>
       </x:c>
     </x:row>
     <x:row r="122">
@@ -2927,7 +2927,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G122" t="str" s="2">
-        <x:v>2022-11-16 08:14:21</x:v>
+        <x:v>2022-11-16 08:22:02</x:v>
       </x:c>
     </x:row>
     <x:row r="123">
@@ -2950,7 +2950,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G123" t="str" s="2">
-        <x:v>2022-11-16 18:58:19</x:v>
+        <x:v>2022-11-16 20:52:08</x:v>
       </x:c>
     </x:row>
     <x:row r="124">
@@ -2973,7 +2973,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G124" t="str" s="2">
-        <x:v>2022-11-17 08:24:17</x:v>
+        <x:v>2022-11-17 08:22:53</x:v>
       </x:c>
     </x:row>
     <x:row r="125">
@@ -2996,7 +2996,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G125" t="str" s="2">
-        <x:v>2022-11-17 18:57:38</x:v>
+        <x:v>2022-11-17 20:53:11</x:v>
       </x:c>
     </x:row>
     <x:row r="126">
@@ -3019,7 +3019,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G126" t="str" s="2">
-        <x:v>2022-11-18 08:13:08</x:v>
+        <x:v>2022-11-18 08:27:27</x:v>
       </x:c>
     </x:row>
     <x:row r="127">
@@ -3042,7 +3042,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G127" t="str" s="2">
-        <x:v>2022-11-18 16:27:50</x:v>
+        <x:v>2022-11-18 17:58:59</x:v>
       </x:c>
     </x:row>
     <x:row r="128">
@@ -3065,7 +3065,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G128" t="str" s="2">
-        <x:v>2022-11-20 08:17:33</x:v>
+        <x:v>2022-11-20 08:25:43</x:v>
       </x:c>
     </x:row>
     <x:row r="129">
@@ -3088,7 +3088,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G129" t="str" s="2">
-        <x:v>2022-11-20 16:31:00</x:v>
+        <x:v>2022-11-20 17:56:13</x:v>
       </x:c>
     </x:row>
     <x:row r="130">
@@ -3111,7 +3111,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G130" t="str" s="2">
-        <x:v>2022-11-21 08:27:50</x:v>
+        <x:v>2022-11-21 08:28:18</x:v>
       </x:c>
     </x:row>
     <x:row r="131">
@@ -3134,7 +3134,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G131" t="str" s="2">
-        <x:v>2022-11-21 18:59:20</x:v>
+        <x:v>2022-11-21 21:02:15</x:v>
       </x:c>
     </x:row>
     <x:row r="132">
@@ -3157,7 +3157,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G132" t="str" s="2">
-        <x:v>2022-11-22 08:11:41</x:v>
+        <x:v>2022-11-22 08:26:42</x:v>
       </x:c>
     </x:row>
     <x:row r="133">
@@ -3180,7 +3180,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G133" t="str" s="2">
-        <x:v>2022-11-22 18:47:03</x:v>
+        <x:v>2022-11-22 20:59:21</x:v>
       </x:c>
     </x:row>
     <x:row r="134">
@@ -3203,7 +3203,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G134" t="str" s="2">
-        <x:v>2022-11-23 08:18:25</x:v>
+        <x:v>2022-11-23 08:23:05</x:v>
       </x:c>
     </x:row>
     <x:row r="135">
@@ -3226,7 +3226,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G135" t="str" s="2">
-        <x:v>2022-11-23 18:51:12</x:v>
+        <x:v>2022-11-23 20:53:16</x:v>
       </x:c>
     </x:row>
     <x:row r="136">
@@ -3249,7 +3249,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G136" t="str" s="2">
-        <x:v>2022-11-24 08:16:47</x:v>
+        <x:v>2022-11-24 08:21:00</x:v>
       </x:c>
     </x:row>
     <x:row r="137">
@@ -3272,7 +3272,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G137" t="str" s="2">
-        <x:v>2022-11-24 18:56:39</x:v>
+        <x:v>2022-11-24 20:55:51</x:v>
       </x:c>
     </x:row>
     <x:row r="138">
@@ -3295,7 +3295,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G138" t="str" s="2">
-        <x:v>2022-11-25 08:26:16</x:v>
+        <x:v>2022-11-25 08:27:02</x:v>
       </x:c>
     </x:row>
     <x:row r="139">
@@ -3318,7 +3318,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G139" t="str" s="2">
-        <x:v>2022-11-25 19:08:19</x:v>
+        <x:v>2022-11-25 21:00:42</x:v>
       </x:c>
     </x:row>
     <x:row r="140">
@@ -3341,7 +3341,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G140" t="str" s="2">
-        <x:v>2022-11-26 08:07:11</x:v>
+        <x:v>2022-11-26 08:23:44</x:v>
       </x:c>
     </x:row>
     <x:row r="141">
@@ -3364,7 +3364,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G141" t="str" s="2">
-        <x:v>2022-11-26 18:40:29</x:v>
+        <x:v>2022-11-26 20:54:20</x:v>
       </x:c>
     </x:row>
     <x:row r="142">
@@ -3387,7 +3387,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G142" t="str" s="2">
-        <x:v>2022-11-28 08:27:13</x:v>
+        <x:v>2022-11-28 08:21:24</x:v>
       </x:c>
     </x:row>
     <x:row r="143">
@@ -3410,7 +3410,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G143" t="str" s="2">
-        <x:v>2022-11-28 19:12:07</x:v>
+        <x:v>2022-11-28 20:52:17</x:v>
       </x:c>
     </x:row>
     <x:row r="144">
@@ -3433,7 +3433,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G144" t="str" s="2">
-        <x:v>2022-11-29 08:26:28</x:v>
+        <x:v>2022-11-29 08:22:21</x:v>
       </x:c>
     </x:row>
     <x:row r="145">
@@ -3456,7 +3456,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G145" t="str" s="2">
-        <x:v>2022-11-29 19:09:29</x:v>
+        <x:v>2022-11-29 20:53:04</x:v>
       </x:c>
     </x:row>
     <x:row r="146">
@@ -3479,7 +3479,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G146" t="str" s="2">
-        <x:v>2022-11-30 08:06:28</x:v>
+        <x:v>2022-11-30 08:20:51</x:v>
       </x:c>
     </x:row>
     <x:row r="147">
@@ -3502,7 +3502,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G147" t="str" s="2">
-        <x:v>2022-11-30 16:09:06</x:v>
+        <x:v>2022-11-30 17:50:55</x:v>
       </x:c>
     </x:row>
     <x:row r="148">
@@ -3525,7 +3525,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G148" t="str" s="2">
-        <x:v>2022-11-01 08:11:39</x:v>
+        <x:v>2022-11-01 08:25:52</x:v>
       </x:c>
     </x:row>
     <x:row r="149">
@@ -3548,7 +3548,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G149" t="str" s="2">
-        <x:v>2022-11-01 18:55:11</x:v>
+        <x:v>2022-11-01 20:56:16</x:v>
       </x:c>
     </x:row>
     <x:row r="150">
@@ -3571,7 +3571,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G150" t="str" s="2">
-        <x:v>2022-11-02 08:12:15</x:v>
+        <x:v>2022-11-02 08:28:37</x:v>
       </x:c>
     </x:row>
     <x:row r="151">
@@ -3594,7 +3594,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G151" t="str" s="2">
-        <x:v>2022-11-02 18:55:42</x:v>
+        <x:v>2022-11-02 21:02:51</x:v>
       </x:c>
     </x:row>
     <x:row r="152">
@@ -3617,7 +3617,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G152" t="str" s="2">
-        <x:v>2022-11-03 08:26:32</x:v>
+        <x:v>2022-11-03 08:24:35</x:v>
       </x:c>
     </x:row>
     <x:row r="153">
@@ -3640,7 +3640,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G153" t="str" s="2">
-        <x:v>2022-11-03 19:04:14</x:v>
+        <x:v>2022-11-03 20:54:39</x:v>
       </x:c>
     </x:row>
     <x:row r="154">
@@ -3663,7 +3663,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G154" t="str" s="2">
-        <x:v>2022-11-04 08:17:03</x:v>
+        <x:v>2022-11-04 08:20:15</x:v>
       </x:c>
     </x:row>
     <x:row r="155">
@@ -3686,7 +3686,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G155" t="str" s="2">
-        <x:v>2022-11-04 18:50:22</x:v>
+        <x:v>2022-11-04 20:53:42</x:v>
       </x:c>
     </x:row>
     <x:row r="156">
@@ -3709,7 +3709,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G156" t="str" s="2">
-        <x:v>2022-11-05 08:14:14</x:v>
+        <x:v>2022-11-05 08:22:33</x:v>
       </x:c>
     </x:row>
     <x:row r="157">
@@ -3732,7 +3732,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G157" t="str" s="2">
-        <x:v>2022-11-05 16:23:49</x:v>
+        <x:v>2022-11-05 17:57:21</x:v>
       </x:c>
     </x:row>
     <x:row r="158">
@@ -3755,7 +3755,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G158" t="str" s="2">
-        <x:v>2022-11-07 08:28:41</x:v>
+        <x:v>2022-11-07 08:20:10</x:v>
       </x:c>
     </x:row>
     <x:row r="159">
@@ -3778,7 +3778,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G159" t="str" s="2">
-        <x:v>2022-11-07 19:09:41</x:v>
+        <x:v>2022-11-07 20:53:30</x:v>
       </x:c>
     </x:row>
     <x:row r="160">
@@ -3801,7 +3801,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G160" t="str" s="2">
-        <x:v>2022-11-08 08:15:55</x:v>
+        <x:v>2022-11-08 08:27:46</x:v>
       </x:c>
     </x:row>
     <x:row r="161">
@@ -3824,7 +3824,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G161" t="str" s="2">
-        <x:v>2022-11-08 16:30:27</x:v>
+        <x:v>2022-11-08 17:57:48</x:v>
       </x:c>
     </x:row>
     <x:row r="162">
@@ -3847,7 +3847,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G162" t="str" s="2">
-        <x:v>2022-11-09 08:05:32</x:v>
+        <x:v>2022-11-09 08:23:06</x:v>
       </x:c>
     </x:row>
     <x:row r="163">
@@ -3870,7 +3870,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G163" t="str" s="2">
-        <x:v>2022-11-09 18:38:06</x:v>
+        <x:v>2022-11-09 20:56:17</x:v>
       </x:c>
     </x:row>
     <x:row r="164">
@@ -3893,7 +3893,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G164" t="str" s="2">
-        <x:v>2022-11-10 08:10:07</x:v>
+        <x:v>2022-11-10 08:25:47</x:v>
       </x:c>
     </x:row>
     <x:row r="165">
@@ -3916,7 +3916,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G165" t="str" s="2">
-        <x:v>2022-11-10 18:53:36</x:v>
+        <x:v>2022-11-10 20:56:27</x:v>
       </x:c>
     </x:row>
     <x:row r="166">
@@ -3939,7 +3939,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G166" t="str" s="2">
-        <x:v>2022-11-11 08:07:34</x:v>
+        <x:v>2022-11-11 08:26:50</x:v>
       </x:c>
     </x:row>
     <x:row r="167">
@@ -3962,7 +3962,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G167" t="str" s="2">
-        <x:v>2022-11-11 18:43:56</x:v>
+        <x:v>2022-11-11 21:01:10</x:v>
       </x:c>
     </x:row>
     <x:row r="168">
@@ -3985,7 +3985,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G168" t="str" s="2">
-        <x:v>2022-11-12 08:10:35</x:v>
+        <x:v>2022-11-12 08:20:40</x:v>
       </x:c>
     </x:row>
     <x:row r="169">
@@ -4008,7 +4008,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G169" t="str" s="2">
-        <x:v>2022-11-12 16:25:14</x:v>
+        <x:v>2022-11-12 17:54:48</x:v>
       </x:c>
     </x:row>
     <x:row r="170">
@@ -4031,7 +4031,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G170" t="str" s="2">
-        <x:v>2022-11-13 08:11:50</x:v>
+        <x:v>2022-11-13 08:22:58</x:v>
       </x:c>
     </x:row>
     <x:row r="171">
@@ -4054,7 +4054,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G171" t="str" s="2">
-        <x:v>2022-11-13 16:25:55</x:v>
+        <x:v>2022-11-13 17:57:11</x:v>
       </x:c>
     </x:row>
     <x:row r="172">
@@ -4077,7 +4077,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G172" t="str" s="2">
-        <x:v>2022-11-14 08:05:45</x:v>
+        <x:v>2022-11-14 08:22:58</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
@@ -4100,7 +4100,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G173" t="str" s="2">
-        <x:v>2022-11-14 18:41:50</x:v>
+        <x:v>2022-11-14 20:53:18</x:v>
       </x:c>
     </x:row>
     <x:row r="174">
@@ -4123,7 +4123,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G174" t="str" s="2">
-        <x:v>2022-11-15 08:25:09</x:v>
+        <x:v>2022-11-15 08:21:46</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
@@ -4146,7 +4146,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G175" t="str" s="2">
-        <x:v>2022-11-15 16:30:11</x:v>
+        <x:v>2022-11-15 17:55:33</x:v>
       </x:c>
     </x:row>
     <x:row r="176">
@@ -4169,7 +4169,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G176" t="str" s="2">
-        <x:v>2022-11-16 08:25:22</x:v>
+        <x:v>2022-11-16 08:26:52</x:v>
       </x:c>
     </x:row>
     <x:row r="177">
@@ -4192,7 +4192,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G177" t="str" s="2">
-        <x:v>2022-11-16 18:58:19</x:v>
+        <x:v>2022-11-16 21:01:27</x:v>
       </x:c>
     </x:row>
     <x:row r="178">
@@ -4215,7 +4215,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G178" t="str" s="2">
-        <x:v>2022-11-17 08:09:12</x:v>
+        <x:v>2022-11-17 08:25:44</x:v>
       </x:c>
     </x:row>
     <x:row r="179">
@@ -4238,7 +4238,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G179" t="str" s="2">
-        <x:v>2022-11-17 16:21:12</x:v>
+        <x:v>2022-11-17 18:00:25</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
@@ -4261,7 +4261,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G180" t="str" s="2">
-        <x:v>2022-11-18 08:05:06</x:v>
+        <x:v>2022-11-18 08:21:41</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
@@ -4284,7 +4284,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G181" t="str" s="2">
-        <x:v>2022-11-18 16:15:56</x:v>
+        <x:v>2022-11-18 17:53:17</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
@@ -4307,7 +4307,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G182" t="str" s="2">
-        <x:v>2022-11-19 08:13:30</x:v>
+        <x:v>2022-11-19 08:23:31</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
@@ -4330,7 +4330,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G183" t="str" s="2">
-        <x:v>2022-11-19 18:45:51</x:v>
+        <x:v>2022-11-19 20:54:42</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
@@ -4353,7 +4353,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G184" t="str" s="2">
-        <x:v>2022-11-20 08:19:26</x:v>
+        <x:v>2022-11-20 08:24:25</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
@@ -4376,7 +4376,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G185" t="str" s="2">
-        <x:v>2022-11-20 16:32:12</x:v>
+        <x:v>2022-11-20 17:55:04</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
@@ -4399,7 +4399,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G186" t="str" s="2">
-        <x:v>2022-11-21 08:14:49</x:v>
+        <x:v>2022-11-21 08:20:19</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
@@ -4422,7 +4422,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G187" t="str" s="2">
-        <x:v>2022-11-21 18:57:35</x:v>
+        <x:v>2022-11-21 20:52:56</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
@@ -4445,7 +4445,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G188" t="str" s="2">
-        <x:v>2022-11-22 08:26:15</x:v>
+        <x:v>2022-11-22 08:21:01</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
@@ -4468,7 +4468,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G189" t="str" s="2">
-        <x:v>2022-11-22 18:58:02</x:v>
+        <x:v>2022-11-22 20:52:07</x:v>
       </x:c>
     </x:row>
     <x:row r="190">
@@ -4491,7 +4491,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G190" t="str" s="2">
-        <x:v>2022-11-23 08:17:53</x:v>
+        <x:v>2022-11-23 08:22:10</x:v>
       </x:c>
     </x:row>
     <x:row r="191">
@@ -4514,7 +4514,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G191" t="str" s="2">
-        <x:v>2022-11-23 18:50:59</x:v>
+        <x:v>2022-11-23 20:54:23</x:v>
       </x:c>
     </x:row>
     <x:row r="192">
@@ -4537,7 +4537,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G192" t="str" s="2">
-        <x:v>2022-11-24 08:11:38</x:v>
+        <x:v>2022-11-24 08:27:47</x:v>
       </x:c>
     </x:row>
     <x:row r="193">
@@ -4560,7 +4560,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G193" t="str" s="2">
-        <x:v>2022-11-24 18:48:12</x:v>
+        <x:v>2022-11-24 20:58:37</x:v>
       </x:c>
     </x:row>
     <x:row r="194">
@@ -4583,7 +4583,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G194" t="str" s="2">
-        <x:v>2022-11-25 08:15:37</x:v>
+        <x:v>2022-11-25 08:20:58</x:v>
       </x:c>
     </x:row>
     <x:row r="195">
@@ -4606,7 +4606,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G195" t="str" s="2">
-        <x:v>2022-11-25 18:57:11</x:v>
+        <x:v>2022-11-25 20:55:34</x:v>
       </x:c>
     </x:row>
     <x:row r="196">
@@ -4629,7 +4629,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G196" t="str" s="2">
-        <x:v>2022-11-28 08:28:25</x:v>
+        <x:v>2022-11-28 08:22:43</x:v>
       </x:c>
     </x:row>
     <x:row r="197">
@@ -4652,7 +4652,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G197" t="str" s="2">
-        <x:v>2022-11-28 16:31:09</x:v>
+        <x:v>2022-11-28 17:53:16</x:v>
       </x:c>
     </x:row>
     <x:row r="198">
@@ -4675,7 +4675,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G198" t="str" s="2">
-        <x:v>2022-11-30 08:22:14</x:v>
+        <x:v>2022-11-30 08:23:54</x:v>
       </x:c>
     </x:row>
     <x:row r="199">
@@ -4698,7 +4698,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G199" t="str" s="2">
-        <x:v>2022-11-30 19:04:11</x:v>
+        <x:v>2022-11-30 20:57:39</x:v>
       </x:c>
     </x:row>
     <x:row r="200">
@@ -4721,7 +4721,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G200" t="str" s="2">
-        <x:v>2022-11-01 08:13:49</x:v>
+        <x:v>2022-11-01 08:28:42</x:v>
       </x:c>
     </x:row>
     <x:row r="201">
@@ -4744,7 +4744,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G201" t="str" s="2">
-        <x:v>2022-11-01 18:44:11</x:v>
+        <x:v>2022-11-01 21:01:50</x:v>
       </x:c>
     </x:row>
     <x:row r="202">
@@ -4767,7 +4767,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G202" t="str" s="2">
-        <x:v>2022-11-03 08:15:41</x:v>
+        <x:v>2022-11-03 08:20:14</x:v>
       </x:c>
     </x:row>
     <x:row r="203">
@@ -4790,7 +4790,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G203" t="str" s="2">
-        <x:v>2022-11-03 16:22:04</x:v>
+        <x:v>2022-11-03 17:54:48</x:v>
       </x:c>
     </x:row>
     <x:row r="204">
@@ -4813,7 +4813,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G204" t="str" s="2">
-        <x:v>2022-11-04 08:07:25</x:v>
+        <x:v>2022-11-04 08:24:17</x:v>
       </x:c>
     </x:row>
     <x:row r="205">
@@ -4836,7 +4836,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G205" t="str" s="2">
-        <x:v>2022-11-04 18:49:47</x:v>
+        <x:v>2022-11-04 20:54:31</x:v>
       </x:c>
     </x:row>
     <x:row r="206">
@@ -4859,7 +4859,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G206" t="str" s="2">
-        <x:v>2022-11-05 08:24:12</x:v>
+        <x:v>2022-11-05 08:27:45</x:v>
       </x:c>
     </x:row>
     <x:row r="207">
@@ -4882,7 +4882,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G207" t="str" s="2">
-        <x:v>2022-11-05 19:05:58</x:v>
+        <x:v>2022-11-05 20:59:19</x:v>
       </x:c>
     </x:row>
     <x:row r="208">
@@ -4905,7 +4905,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G208" t="str" s="2">
-        <x:v>2022-11-07 08:26:57</x:v>
+        <x:v>2022-11-07 08:27:11</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
@@ -4928,7 +4928,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G209" t="str" s="2">
-        <x:v>2022-11-07 19:04:16</x:v>
+        <x:v>2022-11-07 20:57:39</x:v>
       </x:c>
     </x:row>
     <x:row r="210">
@@ -4951,7 +4951,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G210" t="str" s="2">
-        <x:v>2022-11-08 08:05:36</x:v>
+        <x:v>2022-11-08 08:28:54</x:v>
       </x:c>
     </x:row>
     <x:row r="211">
@@ -4974,7 +4974,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G211" t="str" s="2">
-        <x:v>2022-11-08 20:12:37</x:v>
+        <x:v>2022-11-08 22:29:55</x:v>
       </x:c>
     </x:row>
     <x:row r="212">
@@ -4997,7 +4997,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G212" t="str" s="2">
-        <x:v>2022-11-10 08:08:14</x:v>
+        <x:v>2022-11-10 08:20:40</x:v>
       </x:c>
     </x:row>
     <x:row r="213">
@@ -5020,7 +5020,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G213" t="str" s="2">
-        <x:v>2022-11-10 16:12:52</x:v>
+        <x:v>2022-11-10 17:52:23</x:v>
       </x:c>
     </x:row>
     <x:row r="214">
@@ -5043,7 +5043,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G214" t="str" s="2">
-        <x:v>2022-11-11 08:14:36</x:v>
+        <x:v>2022-11-11 08:23:01</x:v>
       </x:c>
     </x:row>
     <x:row r="215">
@@ -5066,7 +5066,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G215" t="str" s="2">
-        <x:v>2022-11-11 16:15:41</x:v>
+        <x:v>2022-11-11 17:53:44</x:v>
       </x:c>
     </x:row>
     <x:row r="216">
@@ -5089,7 +5089,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G216" t="str" s="2">
-        <x:v>2022-11-13 08:11:31</x:v>
+        <x:v>2022-11-13 08:26:28</x:v>
       </x:c>
     </x:row>
     <x:row r="217">
@@ -5112,7 +5112,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G217" t="str" s="2">
-        <x:v>2022-11-13 16:21:08</x:v>
+        <x:v>2022-11-13 18:00:22</x:v>
       </x:c>
     </x:row>
     <x:row r="218">
@@ -5135,7 +5135,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G218" t="str" s="2">
-        <x:v>2022-11-14 08:19:24</x:v>
+        <x:v>2022-11-14 08:20:11</x:v>
       </x:c>
     </x:row>
     <x:row r="219">
@@ -5158,7 +5158,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G219" t="str" s="2">
-        <x:v>2022-11-14 18:49:55</x:v>
+        <x:v>2022-11-14 20:52:41</x:v>
       </x:c>
     </x:row>
     <x:row r="220">
@@ -5181,7 +5181,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G220" t="str" s="2">
-        <x:v>2022-11-15 08:07:02</x:v>
+        <x:v>2022-11-15 08:24:02</x:v>
       </x:c>
     </x:row>
     <x:row r="221">
@@ -5204,7 +5204,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G221" t="str" s="2">
-        <x:v>2022-11-15 16:09:34</x:v>
+        <x:v>2022-11-15 17:55:42</x:v>
       </x:c>
     </x:row>
     <x:row r="222">
@@ -5227,7 +5227,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G222" t="str" s="2">
-        <x:v>2022-11-16 08:09:43</x:v>
+        <x:v>2022-11-16 08:25:58</x:v>
       </x:c>
     </x:row>
     <x:row r="223">
@@ -5250,7 +5250,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G223" t="str" s="2">
-        <x:v>2022-11-16 18:53:12</x:v>
+        <x:v>2022-11-16 20:57:39</x:v>
       </x:c>
     </x:row>
     <x:row r="224">
@@ -5273,7 +5273,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G224" t="str" s="2">
-        <x:v>2022-11-17 08:06:11</x:v>
+        <x:v>2022-11-17 08:25:34</x:v>
       </x:c>
     </x:row>
     <x:row r="225">
@@ -5296,7 +5296,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G225" t="str" s="2">
-        <x:v>2022-11-17 18:38:41</x:v>
+        <x:v>2022-11-17 20:57:40</x:v>
       </x:c>
     </x:row>
     <x:row r="226">
@@ -5319,7 +5319,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G226" t="str" s="2">
-        <x:v>2022-11-18 08:05:03</x:v>
+        <x:v>2022-11-18 08:23:56</x:v>
       </x:c>
     </x:row>
     <x:row r="227">
@@ -5342,7 +5342,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G227" t="str" s="2">
-        <x:v>2022-11-18 16:13:41</x:v>
+        <x:v>2022-11-18 17:55:01</x:v>
       </x:c>
     </x:row>
     <x:row r="228">
@@ -5365,7 +5365,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G228" t="str" s="2">
-        <x:v>2022-11-19 08:05:27</x:v>
+        <x:v>2022-11-19 08:20:05</x:v>
       </x:c>
     </x:row>
     <x:row r="229">
@@ -5388,7 +5388,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G229" t="str" s="2">
-        <x:v>2022-11-19 16:07:03</x:v>
+        <x:v>2022-11-19 17:54:37</x:v>
       </x:c>
     </x:row>
     <x:row r="230">
@@ -5411,7 +5411,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G230" t="str" s="2">
-        <x:v>2022-11-21 08:28:39</x:v>
+        <x:v>2022-11-21 08:24:40</x:v>
       </x:c>
     </x:row>
     <x:row r="231">
@@ -5434,7 +5434,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G231" t="str" s="2">
-        <x:v>2022-11-21 16:32:56</x:v>
+        <x:v>2022-11-21 17:59:26</x:v>
       </x:c>
     </x:row>
     <x:row r="232">
@@ -5457,7 +5457,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G232" t="str" s="2">
-        <x:v>2022-11-22 08:19:28</x:v>
+        <x:v>2022-11-22 08:26:35</x:v>
       </x:c>
     </x:row>
     <x:row r="233">
@@ -5480,7 +5480,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G233" t="str" s="2">
-        <x:v>2022-11-22 19:03:58</x:v>
+        <x:v>2022-11-22 20:57:56</x:v>
       </x:c>
     </x:row>
     <x:row r="234">
@@ -5503,7 +5503,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G234" t="str" s="2">
-        <x:v>2022-11-23 08:28:01</x:v>
+        <x:v>2022-11-23 08:23:21</x:v>
       </x:c>
     </x:row>
     <x:row r="235">
@@ -5526,7 +5526,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G235" t="str" s="2">
-        <x:v>2022-11-23 18:59:07</x:v>
+        <x:v>2022-11-23 20:58:10</x:v>
       </x:c>
     </x:row>
     <x:row r="236">
@@ -5549,7 +5549,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G236" t="str" s="2">
-        <x:v>2022-11-24 08:22:14</x:v>
+        <x:v>2022-11-24 08:21:01</x:v>
       </x:c>
     </x:row>
     <x:row r="237">
@@ -5572,7 +5572,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G237" t="str" s="2">
-        <x:v>2022-11-24 16:31:57</x:v>
+        <x:v>2022-11-24 17:53:12</x:v>
       </x:c>
     </x:row>
     <x:row r="238">
@@ -5595,7 +5595,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G238" t="str" s="2">
-        <x:v>2022-11-25 08:27:39</x:v>
+        <x:v>2022-11-25 08:28:49</x:v>
       </x:c>
     </x:row>
     <x:row r="239">
@@ -5618,7 +5618,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G239" t="str" s="2">
-        <x:v>2022-11-25 19:03:36</x:v>
+        <x:v>2022-11-25 21:02:56</x:v>
       </x:c>
     </x:row>
     <x:row r="240">
@@ -5641,7 +5641,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G240" t="str" s="2">
-        <x:v>2022-11-26 08:15:50</x:v>
+        <x:v>2022-11-26 08:22:58</x:v>
       </x:c>
     </x:row>
     <x:row r="241">
@@ -5664,7 +5664,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G241" t="str" s="2">
-        <x:v>2022-11-26 18:47:52</x:v>
+        <x:v>2022-11-26 20:54:53</x:v>
       </x:c>
     </x:row>
     <x:row r="242">
@@ -5687,7 +5687,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G242" t="str" s="2">
-        <x:v>2022-11-28 08:23:13</x:v>
+        <x:v>2022-11-28 08:21:20</x:v>
       </x:c>
     </x:row>
     <x:row r="243">
@@ -5710,7 +5710,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G243" t="str" s="2">
-        <x:v>2022-11-28 18:53:44</x:v>
+        <x:v>2022-11-28 20:55:33</x:v>
       </x:c>
     </x:row>
     <x:row r="244">
@@ -5733,7 +5733,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G244" t="str" s="2">
-        <x:v>2022-11-29 08:22:09</x:v>
+        <x:v>2022-11-29 08:22:47</x:v>
       </x:c>
     </x:row>
     <x:row r="245">
@@ -5756,7 +5756,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G245" t="str" s="2">
-        <x:v>2022-11-29 18:52:50</x:v>
+        <x:v>2022-11-29 20:56:18</x:v>
       </x:c>
     </x:row>
     <x:row r="246">
@@ -5779,7 +5779,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G246" t="str" s="2">
-        <x:v>2022-11-01 08:10:08</x:v>
+        <x:v>2022-11-01 08:22:30</x:v>
       </x:c>
     </x:row>
     <x:row r="247">
@@ -5802,7 +5802,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G247" t="str" s="2">
-        <x:v>2022-11-01 18:41:30</x:v>
+        <x:v>2022-11-01 20:54:07</x:v>
       </x:c>
     </x:row>
     <x:row r="248">
@@ -5825,7 +5825,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G248" t="str" s="2">
-        <x:v>2022-11-02 08:14:35</x:v>
+        <x:v>2022-11-02 08:25:30</x:v>
       </x:c>
     </x:row>
     <x:row r="249">
@@ -5848,7 +5848,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G249" t="str" s="2">
-        <x:v>2022-11-02 18:51:41</x:v>
+        <x:v>2022-11-02 20:58:36</x:v>
       </x:c>
     </x:row>
     <x:row r="250">
@@ -5871,7 +5871,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G250" t="str" s="2">
-        <x:v>2022-11-03 08:10:54</x:v>
+        <x:v>2022-11-03 08:21:35</x:v>
       </x:c>
     </x:row>
     <x:row r="251">
@@ -5894,7 +5894,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G251" t="str" s="2">
-        <x:v>2022-11-03 20:25:18</x:v>
+        <x:v>2022-11-03 22:22:23</x:v>
       </x:c>
     </x:row>
     <x:row r="252">
@@ -5917,7 +5917,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G252" t="str" s="2">
-        <x:v>2022-11-04 08:22:09</x:v>
+        <x:v>2022-11-04 08:20:10</x:v>
       </x:c>
     </x:row>
     <x:row r="253">
@@ -5940,7 +5940,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G253" t="str" s="2">
-        <x:v>2022-11-04 18:57:13</x:v>
+        <x:v>2022-11-04 20:50:22</x:v>
       </x:c>
     </x:row>
     <x:row r="254">
@@ -5963,7 +5963,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G254" t="str" s="2">
-        <x:v>2022-11-05 08:10:57</x:v>
+        <x:v>2022-11-05 08:22:51</x:v>
       </x:c>
     </x:row>
     <x:row r="255">
@@ -5986,7 +5986,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G255" t="str" s="2">
-        <x:v>2022-11-05 18:46:04</x:v>
+        <x:v>2022-11-05 20:57:47</x:v>
       </x:c>
     </x:row>
     <x:row r="256">
@@ -6009,7 +6009,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G256" t="str" s="2">
-        <x:v>2022-11-07 08:05:27</x:v>
+        <x:v>2022-11-07 08:27:42</x:v>
       </x:c>
     </x:row>
     <x:row r="257">
@@ -6032,7 +6032,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G257" t="str" s="2">
-        <x:v>2022-11-07 16:06:37</x:v>
+        <x:v>2022-11-07 17:59:15</x:v>
       </x:c>
     </x:row>
     <x:row r="258">
@@ -6055,7 +6055,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G258" t="str" s="2">
-        <x:v>2022-11-09 08:13:16</x:v>
+        <x:v>2022-11-09 08:27:31</x:v>
       </x:c>
     </x:row>
     <x:row r="259">
@@ -6078,7 +6078,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G259" t="str" s="2">
-        <x:v>2022-11-09 18:49:36</x:v>
+        <x:v>2022-11-09 21:00:11</x:v>
       </x:c>
     </x:row>
     <x:row r="260">
@@ -6101,7 +6101,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G260" t="str" s="2">
-        <x:v>2022-11-10 08:10:47</x:v>
+        <x:v>2022-11-10 08:24:54</x:v>
       </x:c>
     </x:row>
     <x:row r="261">
@@ -6124,7 +6124,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G261" t="str" s="2">
-        <x:v>2022-11-10 18:52:23</x:v>
+        <x:v>2022-11-10 20:57:22</x:v>
       </x:c>
     </x:row>
     <x:row r="262">
@@ -6147,7 +6147,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G262" t="str" s="2">
-        <x:v>2022-11-11 08:20:32</x:v>
+        <x:v>2022-11-11 08:23:10</x:v>
       </x:c>
     </x:row>
     <x:row r="263">
@@ -6170,7 +6170,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G263" t="str" s="2">
-        <x:v>2022-11-11 19:02:21</x:v>
+        <x:v>2022-11-11 20:56:24</x:v>
       </x:c>
     </x:row>
     <x:row r="264">
@@ -6193,7 +6193,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G264" t="str" s="2">
-        <x:v>2022-11-12 08:14:30</x:v>
+        <x:v>2022-11-12 08:26:52</x:v>
       </x:c>
     </x:row>
     <x:row r="265">
@@ -6216,7 +6216,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G265" t="str" s="2">
-        <x:v>2022-11-12 18:50:13</x:v>
+        <x:v>2022-11-12 20:57:59</x:v>
       </x:c>
     </x:row>
     <x:row r="266">
@@ -6239,7 +6239,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G266" t="str" s="2">
-        <x:v>2022-11-13 08:11:53</x:v>
+        <x:v>2022-11-13 08:26:13</x:v>
       </x:c>
     </x:row>
     <x:row r="267">
@@ -6262,7 +6262,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G267" t="str" s="2">
-        <x:v>2022-11-13 16:13:31</x:v>
+        <x:v>2022-11-13 17:58:42</x:v>
       </x:c>
     </x:row>
     <x:row r="268">
@@ -6285,7 +6285,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G268" t="str" s="2">
-        <x:v>2022-11-14 08:11:12</x:v>
+        <x:v>2022-11-14 08:24:23</x:v>
       </x:c>
     </x:row>
     <x:row r="269">
@@ -6308,7 +6308,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G269" t="str" s="2">
-        <x:v>2022-11-14 16:13:04</x:v>
+        <x:v>2022-11-14 17:57:46</x:v>
       </x:c>
     </x:row>
     <x:row r="270">
@@ -6331,7 +6331,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G270" t="str" s="2">
-        <x:v>2022-11-15 08:27:19</x:v>
+        <x:v>2022-11-15 08:24:34</x:v>
       </x:c>
     </x:row>
     <x:row r="271">
@@ -6354,7 +6354,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G271" t="str" s="2">
-        <x:v>2022-11-15 18:59:20</x:v>
+        <x:v>2022-11-15 20:54:38</x:v>
       </x:c>
     </x:row>
     <x:row r="272">
@@ -6377,7 +6377,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G272" t="str" s="2">
-        <x:v>2022-11-16 08:10:46</x:v>
+        <x:v>2022-11-16 08:22:01</x:v>
       </x:c>
     </x:row>
     <x:row r="273">
@@ -6400,7 +6400,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G273" t="str" s="2">
-        <x:v>2022-11-16 16:21:52</x:v>
+        <x:v>2022-11-16 17:56:19</x:v>
       </x:c>
     </x:row>
     <x:row r="274">
@@ -6423,7 +6423,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G274" t="str" s="2">
-        <x:v>2022-11-18 08:17:01</x:v>
+        <x:v>2022-11-18 08:20:06</x:v>
       </x:c>
     </x:row>
     <x:row r="275">
@@ -6446,7 +6446,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G275" t="str" s="2">
-        <x:v>2022-11-18 16:26:58</x:v>
+        <x:v>2022-11-18 17:50:41</x:v>
       </x:c>
     </x:row>
     <x:row r="276">
@@ -6469,7 +6469,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G276" t="str" s="2">
-        <x:v>2022-11-20 08:18:18</x:v>
+        <x:v>2022-11-20 08:22:02</x:v>
       </x:c>
     </x:row>
     <x:row r="277">
@@ -6492,7 +6492,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G277" t="str" s="2">
-        <x:v>2022-11-20 16:21:28</x:v>
+        <x:v>2022-11-20 17:54:44</x:v>
       </x:c>
     </x:row>
     <x:row r="278">
@@ -6515,7 +6515,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G278" t="str" s="2">
-        <x:v>2022-11-21 08:07:43</x:v>
+        <x:v>2022-11-21 08:27:37</x:v>
       </x:c>
     </x:row>
     <x:row r="279">
@@ -6538,7 +6538,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G279" t="str" s="2">
-        <x:v>2022-11-21 18:50:49</x:v>
+        <x:v>2022-11-21 21:00:42</x:v>
       </x:c>
     </x:row>
     <x:row r="280">
@@ -6561,7 +6561,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G280" t="str" s="2">
-        <x:v>2022-11-22 08:21:58</x:v>
+        <x:v>2022-11-22 08:27:10</x:v>
       </x:c>
     </x:row>
     <x:row r="281">
@@ -6584,7 +6584,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G281" t="str" s="2">
-        <x:v>2022-11-22 16:24:32</x:v>
+        <x:v>2022-11-22 17:59:37</x:v>
       </x:c>
     </x:row>
     <x:row r="282">
@@ -6607,7 +6607,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G282" t="str" s="2">
-        <x:v>2022-11-23 08:22:39</x:v>
+        <x:v>2022-11-23 08:27:43</x:v>
       </x:c>
     </x:row>
     <x:row r="283">
@@ -6630,7 +6630,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G283" t="str" s="2">
-        <x:v>2022-11-23 16:23:34</x:v>
+        <x:v>2022-11-23 17:58:53</x:v>
       </x:c>
     </x:row>
     <x:row r="284">
@@ -6653,7 +6653,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G284" t="str" s="2">
-        <x:v>2022-11-25 08:14:52</x:v>
+        <x:v>2022-11-25 08:23:15</x:v>
       </x:c>
     </x:row>
     <x:row r="285">
@@ -6676,7 +6676,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G285" t="str" s="2">
-        <x:v>2022-11-25 18:52:45</x:v>
+        <x:v>2022-11-25 20:54:00</x:v>
       </x:c>
     </x:row>
     <x:row r="286">
@@ -6699,7 +6699,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G286" t="str" s="2">
-        <x:v>2022-11-26 08:16:43</x:v>
+        <x:v>2022-11-26 08:27:36</x:v>
       </x:c>
     </x:row>
     <x:row r="287">
@@ -6722,7 +6722,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G287" t="str" s="2">
-        <x:v>2022-11-26 18:57:35</x:v>
+        <x:v>2022-11-26 20:58:18</x:v>
       </x:c>
     </x:row>
     <x:row r="288">
@@ -6745,7 +6745,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G288" t="str" s="2">
-        <x:v>2022-11-29 08:17:22</x:v>
+        <x:v>2022-11-29 08:20:06</x:v>
       </x:c>
     </x:row>
     <x:row r="289">
@@ -6768,7 +6768,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G289" t="str" s="2">
-        <x:v>2022-11-29 16:19:50</x:v>
+        <x:v>2022-11-29 17:51:26</x:v>
       </x:c>
     </x:row>
     <x:row r="290">
@@ -6791,7 +6791,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G290" t="str" s="2">
-        <x:v>2022-11-30 08:27:10</x:v>
+        <x:v>2022-11-30 08:24:22</x:v>
       </x:c>
     </x:row>
     <x:row r="291">
@@ -6814,7 +6814,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G291" t="str" s="2">
-        <x:v>2022-11-30 19:01:57</x:v>
+        <x:v>2022-11-30 20:55:58</x:v>
       </x:c>
     </x:row>
     <x:row r="292">
@@ -6837,7 +6837,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G292" t="str" s="2">
-        <x:v>2022-11-01 08:20:55</x:v>
+        <x:v>2022-11-01 08:28:38</x:v>
       </x:c>
     </x:row>
     <x:row r="293">
@@ -6860,7 +6860,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G293" t="str" s="2">
-        <x:v>2022-11-01 16:22:11</x:v>
+        <x:v>2022-11-01 18:01:02</x:v>
       </x:c>
     </x:row>
     <x:row r="294">
@@ -6883,7 +6883,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G294" t="str" s="2">
-        <x:v>2022-11-03 08:28:57</x:v>
+        <x:v>2022-11-03 08:24:11</x:v>
       </x:c>
     </x:row>
     <x:row r="295">
@@ -6906,7 +6906,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G295" t="str" s="2">
-        <x:v>2022-11-03 20:32:05</x:v>
+        <x:v>2022-11-03 22:24:42</x:v>
       </x:c>
     </x:row>
     <x:row r="296">
@@ -6929,7 +6929,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G296" t="str" s="2">
-        <x:v>2022-11-04 08:19:27</x:v>
+        <x:v>2022-11-04 08:27:16</x:v>
       </x:c>
     </x:row>
     <x:row r="297">
@@ -6952,7 +6952,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G297" t="str" s="2">
-        <x:v>2022-11-04 16:25:20</x:v>
+        <x:v>2022-11-04 18:00:33</x:v>
       </x:c>
     </x:row>
     <x:row r="298">
@@ -6975,7 +6975,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G298" t="str" s="2">
-        <x:v>2022-11-05 08:09:43</x:v>
+        <x:v>2022-11-05 08:22:58</x:v>
       </x:c>
     </x:row>
     <x:row r="299">
@@ -6998,7 +6998,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G299" t="str" s="2">
-        <x:v>2022-11-05 16:12:05</x:v>
+        <x:v>2022-11-05 17:55:06</x:v>
       </x:c>
     </x:row>
     <x:row r="300">
@@ -7021,7 +7021,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G300" t="str" s="2">
-        <x:v>2022-11-07 08:23:22</x:v>
+        <x:v>2022-11-07 08:25:40</x:v>
       </x:c>
     </x:row>
     <x:row r="301">
@@ -7044,7 +7044,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G301" t="str" s="2">
-        <x:v>2022-11-07 19:05:26</x:v>
+        <x:v>2022-11-07 20:56:10</x:v>
       </x:c>
     </x:row>
     <x:row r="302">
@@ -7067,7 +7067,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G302" t="str" s="2">
-        <x:v>2022-11-08 08:18:27</x:v>
+        <x:v>2022-11-08 08:20:08</x:v>
       </x:c>
     </x:row>
     <x:row r="303">
@@ -7090,7 +7090,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G303" t="str" s="2">
-        <x:v>2022-11-08 16:26:15</x:v>
+        <x:v>2022-11-08 17:52:42</x:v>
       </x:c>
     </x:row>
     <x:row r="304">
@@ -7113,7 +7113,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G304" t="str" s="2">
-        <x:v>2022-11-09 08:18:46</x:v>
+        <x:v>2022-11-09 08:25:23</x:v>
       </x:c>
     </x:row>
     <x:row r="305">
@@ -7136,7 +7136,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G305" t="str" s="2">
-        <x:v>2022-11-09 16:30:38</x:v>
+        <x:v>2022-11-09 17:57:49</x:v>
       </x:c>
     </x:row>
     <x:row r="306">
@@ -7159,7 +7159,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G306" t="str" s="2">
-        <x:v>2022-11-10 08:13:08</x:v>
+        <x:v>2022-11-10 08:20:09</x:v>
       </x:c>
     </x:row>
     <x:row r="307">
@@ -7182,7 +7182,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G307" t="str" s="2">
-        <x:v>2022-11-10 16:25:29</x:v>
+        <x:v>2022-11-10 17:51:03</x:v>
       </x:c>
     </x:row>
     <x:row r="308">
@@ -7205,7 +7205,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G308" t="str" s="2">
-        <x:v>2022-11-11 08:16:50</x:v>
+        <x:v>2022-11-11 08:26:42</x:v>
       </x:c>
     </x:row>
     <x:row r="309">
@@ -7228,7 +7228,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G309" t="str" s="2">
-        <x:v>2022-11-11 16:23:24</x:v>
+        <x:v>2022-11-11 18:00:40</x:v>
       </x:c>
     </x:row>
     <x:row r="310">
@@ -7251,7 +7251,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G310" t="str" s="2">
-        <x:v>2022-11-12 08:12:15</x:v>
+        <x:v>2022-11-12 08:28:58</x:v>
       </x:c>
     </x:row>
     <x:row r="311">
@@ -7274,7 +7274,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G311" t="str" s="2">
-        <x:v>2022-11-12 18:54:50</x:v>
+        <x:v>2022-11-12 21:02:43</x:v>
       </x:c>
     </x:row>
     <x:row r="312">
@@ -7297,7 +7297,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G312" t="str" s="2">
-        <x:v>2022-11-14 08:11:58</x:v>
+        <x:v>2022-11-14 08:28:12</x:v>
       </x:c>
     </x:row>
     <x:row r="313">
@@ -7320,7 +7320,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G313" t="str" s="2">
-        <x:v>2022-11-14 18:55:32</x:v>
+        <x:v>2022-11-14 21:01:24</x:v>
       </x:c>
     </x:row>
     <x:row r="314">
@@ -7343,7 +7343,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G314" t="str" s="2">
-        <x:v>2022-11-15 08:09:05</x:v>
+        <x:v>2022-11-15 08:21:43</x:v>
       </x:c>
     </x:row>
     <x:row r="315">
@@ -7366,7 +7366,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G315" t="str" s="2">
-        <x:v>2022-11-15 16:18:22</x:v>
+        <x:v>2022-11-15 17:54:01</x:v>
       </x:c>
     </x:row>
     <x:row r="316">
@@ -7389,7 +7389,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G316" t="str" s="2">
-        <x:v>2022-11-16 08:24:08</x:v>
+        <x:v>2022-11-16 08:26:00</x:v>
       </x:c>
     </x:row>
     <x:row r="317">
@@ -7412,7 +7412,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G317" t="str" s="2">
-        <x:v>2022-11-16 18:56:01</x:v>
+        <x:v>2022-11-16 21:00:20</x:v>
       </x:c>
     </x:row>
     <x:row r="318">
@@ -7435,7 +7435,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G318" t="str" s="2">
-        <x:v>2022-11-17 08:21:23</x:v>
+        <x:v>2022-11-17 08:28:08</x:v>
       </x:c>
     </x:row>
     <x:row r="319">
@@ -7458,7 +7458,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G319" t="str" s="2">
-        <x:v>2022-11-17 18:54:57</x:v>
+        <x:v>2022-11-17 20:59:32</x:v>
       </x:c>
     </x:row>
     <x:row r="320">
@@ -7481,7 +7481,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G320" t="str" s="2">
-        <x:v>2022-11-18 08:26:26</x:v>
+        <x:v>2022-11-18 08:20:46</x:v>
       </x:c>
     </x:row>
     <x:row r="321">
@@ -7504,7 +7504,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G321" t="str" s="2">
-        <x:v>2022-11-18 16:35:10</x:v>
+        <x:v>2022-11-18 17:53:18</x:v>
       </x:c>
     </x:row>
     <x:row r="322">
@@ -7527,7 +7527,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G322" t="str" s="2">
-        <x:v>2022-11-19 08:08:21</x:v>
+        <x:v>2022-11-19 08:27:24</x:v>
       </x:c>
     </x:row>
     <x:row r="323">
@@ -7550,7 +7550,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G323" t="str" s="2">
-        <x:v>2022-11-19 18:49:23</x:v>
+        <x:v>2022-11-19 21:01:41</x:v>
       </x:c>
     </x:row>
     <x:row r="324">
@@ -7573,7 +7573,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G324" t="str" s="2">
-        <x:v>2022-11-21 08:05:04</x:v>
+        <x:v>2022-11-21 08:21:35</x:v>
       </x:c>
     </x:row>
     <x:row r="325">
@@ -7596,7 +7596,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G325" t="str" s="2">
-        <x:v>2022-11-21 16:19:49</x:v>
+        <x:v>2022-11-21 17:53:06</x:v>
       </x:c>
     </x:row>
     <x:row r="326">
@@ -7619,7 +7619,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G326" t="str" s="2">
-        <x:v>2022-11-22 08:20:58</x:v>
+        <x:v>2022-11-22 08:21:58</x:v>
       </x:c>
     </x:row>
     <x:row r="327">
@@ -7642,7 +7642,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G327" t="str" s="2">
-        <x:v>2022-11-22 18:57:06</x:v>
+        <x:v>2022-11-22 20:55:48</x:v>
       </x:c>
     </x:row>
     <x:row r="328">
@@ -7665,7 +7665,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G328" t="str" s="2">
-        <x:v>2022-11-23 08:13:32</x:v>
+        <x:v>2022-11-23 08:25:20</x:v>
       </x:c>
     </x:row>
     <x:row r="329">
@@ -7688,7 +7688,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G329" t="str" s="2">
-        <x:v>2022-11-23 18:52:51</x:v>
+        <x:v>2022-11-23 20:57:27</x:v>
       </x:c>
     </x:row>
     <x:row r="330">
@@ -7711,7 +7711,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G330" t="str" s="2">
-        <x:v>2022-11-24 08:05:12</x:v>
+        <x:v>2022-11-24 08:25:12</x:v>
       </x:c>
     </x:row>
     <x:row r="331">
@@ -7734,7 +7734,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G331" t="str" s="2">
-        <x:v>2022-11-24 18:44:41</x:v>
+        <x:v>2022-11-24 20:55:42</x:v>
       </x:c>
     </x:row>
     <x:row r="332">
@@ -7757,7 +7757,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G332" t="str" s="2">
-        <x:v>2022-11-28 08:16:25</x:v>
+        <x:v>2022-11-28 08:27:02</x:v>
       </x:c>
     </x:row>
     <x:row r="333">
@@ -7780,7 +7780,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G333" t="str" s="2">
-        <x:v>2022-11-28 16:29:18</x:v>
+        <x:v>2022-11-28 17:57:22</x:v>
       </x:c>
     </x:row>
     <x:row r="334">
@@ -7803,7 +7803,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G334" t="str" s="2">
-        <x:v>2022-11-29 08:10:12</x:v>
+        <x:v>2022-11-29 08:22:22</x:v>
       </x:c>
     </x:row>
     <x:row r="335">
@@ -7826,7 +7826,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G335" t="str" s="2">
-        <x:v>2022-11-29 18:50:58</x:v>
+        <x:v>2022-11-29 20:54:34</x:v>
       </x:c>
     </x:row>
     <x:row r="336">
@@ -7849,7 +7849,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G336" t="str" s="2">
-        <x:v>2022-11-30 08:07:54</x:v>
+        <x:v>2022-11-30 08:23:49</x:v>
       </x:c>
     </x:row>
     <x:row r="337">
@@ -7872,7 +7872,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G337" t="str" s="2">
-        <x:v>2022-11-30 18:51:15</x:v>
+        <x:v>2022-11-30 20:57:09</x:v>
       </x:c>
     </x:row>
     <x:row r="338">
@@ -7895,7 +7895,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G338" t="str" s="2">
-        <x:v>2022-11-01 08:28:43</x:v>
+        <x:v>2022-11-01 08:21:42</x:v>
       </x:c>
     </x:row>
     <x:row r="339">
@@ -7918,7 +7918,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G339" t="str" s="2">
-        <x:v>2022-11-01 16:28:53</x:v>
+        <x:v>2022-11-01 17:54:52</x:v>
       </x:c>
     </x:row>
     <x:row r="340">
@@ -7941,7 +7941,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G340" t="str" s="2">
-        <x:v>2022-11-02 08:14:52</x:v>
+        <x:v>2022-11-02 08:26:14</x:v>
       </x:c>
     </x:row>
     <x:row r="341">
@@ -7964,7 +7964,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G341" t="str" s="2">
-        <x:v>2022-11-02 18:49:59</x:v>
+        <x:v>2022-11-02 20:56:51</x:v>
       </x:c>
     </x:row>
     <x:row r="342">
@@ -7987,7 +7987,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G342" t="str" s="2">
-        <x:v>2022-11-04 08:19:31</x:v>
+        <x:v>2022-11-04 08:23:27</x:v>
       </x:c>
     </x:row>
     <x:row r="343">
@@ -8010,7 +8010,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G343" t="str" s="2">
-        <x:v>2022-11-04 16:30:01</x:v>
+        <x:v>2022-11-04 17:55:35</x:v>
       </x:c>
     </x:row>
     <x:row r="344">
@@ -8033,7 +8033,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G344" t="str" s="2">
-        <x:v>2022-11-05 08:12:24</x:v>
+        <x:v>2022-11-05 08:27:03</x:v>
       </x:c>
     </x:row>
     <x:row r="345">
@@ -8056,7 +8056,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G345" t="str" s="2">
-        <x:v>2022-11-05 18:47:16</x:v>
+        <x:v>2022-11-05 21:00:43</x:v>
       </x:c>
     </x:row>
     <x:row r="346">
@@ -8079,7 +8079,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G346" t="str" s="2">
-        <x:v>2022-11-07 08:15:28</x:v>
+        <x:v>2022-11-07 08:28:10</x:v>
       </x:c>
     </x:row>
     <x:row r="347">
@@ -8102,7 +8102,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G347" t="str" s="2">
-        <x:v>2022-11-07 16:24:17</x:v>
+        <x:v>2022-11-07 18:01:40</x:v>
       </x:c>
     </x:row>
     <x:row r="348">
@@ -8125,7 +8125,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G348" t="str" s="2">
-        <x:v>2022-11-08 08:27:41</x:v>
+        <x:v>2022-11-08 08:26:34</x:v>
       </x:c>
     </x:row>
     <x:row r="349">
@@ -8148,7 +8148,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G349" t="str" s="2">
-        <x:v>2022-11-08 20:41:57</x:v>
+        <x:v>2022-11-08 22:30:58</x:v>
       </x:c>
     </x:row>
     <x:row r="350">
@@ -8171,7 +8171,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G350" t="str" s="2">
-        <x:v>2022-11-09 08:08:12</x:v>
+        <x:v>2022-11-09 08:21:18</x:v>
       </x:c>
     </x:row>
     <x:row r="351">
@@ -8194,7 +8194,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G351" t="str" s="2">
-        <x:v>2022-11-09 18:46:55</x:v>
+        <x:v>2022-11-09 20:52:39</x:v>
       </x:c>
     </x:row>
     <x:row r="352">
@@ -8217,7 +8217,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G352" t="str" s="2">
-        <x:v>2022-11-10 08:15:13</x:v>
+        <x:v>2022-11-10 08:24:39</x:v>
       </x:c>
     </x:row>
     <x:row r="353">
@@ -8240,7 +8240,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G353" t="str" s="2">
-        <x:v>2022-11-10 18:56:47</x:v>
+        <x:v>2022-11-10 20:57:24</x:v>
       </x:c>
     </x:row>
     <x:row r="354">
@@ -8263,7 +8263,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G354" t="str" s="2">
-        <x:v>2022-11-11 08:05:35</x:v>
+        <x:v>2022-11-11 08:20:16</x:v>
       </x:c>
     </x:row>
     <x:row r="355">
@@ -8286,7 +8286,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G355" t="str" s="2">
-        <x:v>2022-11-11 18:48:33</x:v>
+        <x:v>2022-11-11 20:54:57</x:v>
       </x:c>
     </x:row>
     <x:row r="356">
@@ -8309,7 +8309,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G356" t="str" s="2">
-        <x:v>2022-11-12 08:19:35</x:v>
+        <x:v>2022-11-12 08:22:31</x:v>
       </x:c>
     </x:row>
     <x:row r="357">
@@ -8332,7 +8332,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G357" t="str" s="2">
-        <x:v>2022-11-12 16:23:53</x:v>
+        <x:v>2022-11-12 17:55:51</x:v>
       </x:c>
     </x:row>
     <x:row r="358">
@@ -8355,7 +8355,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G358" t="str" s="2">
-        <x:v>2022-11-13 08:17:19</x:v>
+        <x:v>2022-11-13 08:24:01</x:v>
       </x:c>
     </x:row>
     <x:row r="359">
@@ -8378,7 +8378,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G359" t="str" s="2">
-        <x:v>2022-11-13 16:27:46</x:v>
+        <x:v>2022-11-13 17:57:15</x:v>
       </x:c>
     </x:row>
     <x:row r="360">
@@ -8401,7 +8401,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G360" t="str" s="2">
-        <x:v>2022-11-14 08:07:53</x:v>
+        <x:v>2022-11-14 08:28:25</x:v>
       </x:c>
     </x:row>
     <x:row r="361">
@@ -8424,7 +8424,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G361" t="str" s="2">
-        <x:v>2022-11-14 16:22:23</x:v>
+        <x:v>2022-11-14 18:02:11</x:v>
       </x:c>
     </x:row>
     <x:row r="362">
@@ -8447,7 +8447,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G362" t="str" s="2">
-        <x:v>2022-11-15 08:09:25</x:v>
+        <x:v>2022-11-15 08:26:35</x:v>
       </x:c>
     </x:row>
     <x:row r="363">
@@ -8470,7 +8470,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G363" t="str" s="2">
-        <x:v>2022-11-15 18:42:41</x:v>
+        <x:v>2022-11-15 20:59:58</x:v>
       </x:c>
     </x:row>
     <x:row r="364">
@@ -8493,7 +8493,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G364" t="str" s="2">
-        <x:v>2022-11-17 08:14:31</x:v>
+        <x:v>2022-11-17 08:20:23</x:v>
       </x:c>
     </x:row>
     <x:row r="365">
@@ -8516,7 +8516,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G365" t="str" s="2">
-        <x:v>2022-11-17 16:28:42</x:v>
+        <x:v>2022-11-17 17:52:20</x:v>
       </x:c>
     </x:row>
     <x:row r="366">
@@ -8539,7 +8539,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G366" t="str" s="2">
-        <x:v>2022-11-18 08:07:23</x:v>
+        <x:v>2022-11-18 08:26:28</x:v>
       </x:c>
     </x:row>
     <x:row r="367">
@@ -8562,7 +8562,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G367" t="str" s="2">
-        <x:v>2022-11-18 16:10:34</x:v>
+        <x:v>2022-11-18 17:58:32</x:v>
       </x:c>
     </x:row>
     <x:row r="368">
@@ -8585,7 +8585,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G368" t="str" s="2">
-        <x:v>2022-11-20 08:28:20</x:v>
+        <x:v>2022-11-20 08:25:05</x:v>
       </x:c>
     </x:row>
     <x:row r="369">
@@ -8608,7 +8608,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G369" t="str" s="2">
-        <x:v>2022-11-20 16:36:40</x:v>
+        <x:v>2022-11-20 17:57:03</x:v>
       </x:c>
     </x:row>
     <x:row r="370">
@@ -8631,7 +8631,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G370" t="str" s="2">
-        <x:v>2022-11-22 08:10:48</x:v>
+        <x:v>2022-11-22 08:21:12</x:v>
       </x:c>
     </x:row>
     <x:row r="371">
@@ -8654,7 +8654,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G371" t="str" s="2">
-        <x:v>2022-11-22 18:42:34</x:v>
+        <x:v>2022-11-22 20:53:38</x:v>
       </x:c>
     </x:row>
     <x:row r="372">
@@ -8677,7 +8677,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G372" t="str" s="2">
-        <x:v>2022-11-23 08:12:03</x:v>
+        <x:v>2022-11-23 08:27:41</x:v>
       </x:c>
     </x:row>
     <x:row r="373">
@@ -8700,7 +8700,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G373" t="str" s="2">
-        <x:v>2022-11-23 18:44:09</x:v>
+        <x:v>2022-11-23 21:01:31</x:v>
       </x:c>
     </x:row>
     <x:row r="374">
@@ -8723,7 +8723,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G374" t="str" s="2">
-        <x:v>2022-11-24 08:11:55</x:v>
+        <x:v>2022-11-24 08:28:15</x:v>
       </x:c>
     </x:row>
     <x:row r="375">
@@ -8746,7 +8746,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G375" t="str" s="2">
-        <x:v>2022-11-24 16:17:18</x:v>
+        <x:v>2022-11-24 18:02:55</x:v>
       </x:c>
     </x:row>
     <x:row r="376">
@@ -8769,7 +8769,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G376" t="str" s="2">
-        <x:v>2022-11-25 08:22:00</x:v>
+        <x:v>2022-11-25 08:20:56</x:v>
       </x:c>
     </x:row>
     <x:row r="377">
@@ -8792,7 +8792,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G377" t="str" s="2">
-        <x:v>2022-11-25 18:53:43</x:v>
+        <x:v>2022-11-25 20:55:44</x:v>
       </x:c>
     </x:row>
     <x:row r="378">
@@ -8815,7 +8815,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G378" t="str" s="2">
-        <x:v>2022-11-26 08:15:08</x:v>
+        <x:v>2022-11-26 08:25:40</x:v>
       </x:c>
     </x:row>
     <x:row r="379">
@@ -8838,7 +8838,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G379" t="str" s="2">
-        <x:v>2022-11-26 18:58:03</x:v>
+        <x:v>2022-11-26 20:59:35</x:v>
       </x:c>
     </x:row>
     <x:row r="380">
@@ -8861,7 +8861,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G380" t="str" s="2">
-        <x:v>2022-11-28 08:13:05</x:v>
+        <x:v>2022-11-28 08:26:23</x:v>
       </x:c>
     </x:row>
     <x:row r="381">
@@ -8884,7 +8884,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G381" t="str" s="2">
-        <x:v>2022-11-28 18:56:03</x:v>
+        <x:v>2022-11-28 21:01:05</x:v>
       </x:c>
     </x:row>
     <x:row r="382">
@@ -8907,7 +8907,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G382" t="str" s="2">
-        <x:v>2022-11-29 08:13:24</x:v>
+        <x:v>2022-11-29 08:21:24</x:v>
       </x:c>
     </x:row>
     <x:row r="383">
@@ -8930,7 +8930,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G383" t="str" s="2">
-        <x:v>2022-11-29 18:52:37</x:v>
+        <x:v>2022-11-29 20:53:55</x:v>
       </x:c>
     </x:row>
     <x:row r="384">
@@ -8953,7 +8953,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G384" t="str" s="2">
-        <x:v>2022-11-30 08:21:36</x:v>
+        <x:v>2022-11-30 08:25:15</x:v>
       </x:c>
     </x:row>
     <x:row r="385">
@@ -8976,7 +8976,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G385" t="str" s="2">
-        <x:v>2022-11-30 16:28:09</x:v>
+        <x:v>2022-11-30 17:59:02</x:v>
       </x:c>
     </x:row>
     <x:row r="386">
@@ -8999,7 +8999,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G386" t="str" s="2">
-        <x:v>2022-11-01 08:24:00</x:v>
+        <x:v>2022-11-01 08:25:42</x:v>
       </x:c>
     </x:row>
     <x:row r="387">
@@ -9022,7 +9022,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G387" t="str" s="2">
-        <x:v>2022-11-01 19:05:48</x:v>
+        <x:v>2022-11-01 20:56:39</x:v>
       </x:c>
     </x:row>
     <x:row r="388">
@@ -9045,7 +9045,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G388" t="str" s="2">
-        <x:v>2022-11-02 08:24:16</x:v>
+        <x:v>2022-11-02 08:23:28</x:v>
       </x:c>
     </x:row>
     <x:row r="389">
@@ -9068,7 +9068,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G389" t="str" s="2">
-        <x:v>2022-11-02 16:30:31</x:v>
+        <x:v>2022-11-02 17:53:32</x:v>
       </x:c>
     </x:row>
     <x:row r="390">
@@ -9091,7 +9091,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G390" t="str" s="2">
-        <x:v>2022-11-03 08:26:41</x:v>
+        <x:v>2022-11-03 08:26:55</x:v>
       </x:c>
     </x:row>
     <x:row r="391">
@@ -9114,7 +9114,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G391" t="str" s="2">
-        <x:v>2022-11-03 20:36:36</x:v>
+        <x:v>2022-11-03 22:30:30</x:v>
       </x:c>
     </x:row>
     <x:row r="392">
@@ -9137,7 +9137,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G392" t="str" s="2">
-        <x:v>2022-11-04 08:08:33</x:v>
+        <x:v>2022-11-04 08:26:32</x:v>
       </x:c>
     </x:row>
     <x:row r="393">
@@ -9160,7 +9160,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G393" t="str" s="2">
-        <x:v>2022-11-04 18:50:22</x:v>
+        <x:v>2022-11-04 20:57:18</x:v>
       </x:c>
     </x:row>
     <x:row r="394">
@@ -9183,7 +9183,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G394" t="str" s="2">
-        <x:v>2022-11-05 08:16:04</x:v>
+        <x:v>2022-11-05 08:23:50</x:v>
       </x:c>
     </x:row>
     <x:row r="395">
@@ -9206,7 +9206,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G395" t="str" s="2">
-        <x:v>2022-11-05 16:20:13</x:v>
+        <x:v>2022-11-05 17:57:05</x:v>
       </x:c>
     </x:row>
     <x:row r="396">
@@ -9229,7 +9229,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G396" t="str" s="2">
-        <x:v>2022-11-07 08:19:30</x:v>
+        <x:v>2022-11-07 08:25:10</x:v>
       </x:c>
     </x:row>
     <x:row r="397">
@@ -9252,7 +9252,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G397" t="str" s="2">
-        <x:v>2022-11-07 16:22:58</x:v>
+        <x:v>2022-11-07 17:57:57</x:v>
       </x:c>
     </x:row>
     <x:row r="398">
@@ -9275,7 +9275,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G398" t="str" s="2">
-        <x:v>2022-11-08 08:20:23</x:v>
+        <x:v>2022-11-08 08:25:28</x:v>
       </x:c>
     </x:row>
     <x:row r="399">
@@ -9298,7 +9298,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G399" t="str" s="2">
-        <x:v>2022-11-08 18:56:44</x:v>
+        <x:v>2022-11-08 20:58:26</x:v>
       </x:c>
     </x:row>
     <x:row r="400">
@@ -9321,7 +9321,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G400" t="str" s="2">
-        <x:v>2022-11-09 08:15:28</x:v>
+        <x:v>2022-11-09 08:23:27</x:v>
       </x:c>
     </x:row>
     <x:row r="401">
@@ -9344,7 +9344,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G401" t="str" s="2">
-        <x:v>2022-11-09 18:46:07</x:v>
+        <x:v>2022-11-09 20:58:19</x:v>
       </x:c>
     </x:row>
     <x:row r="402">
@@ -9367,7 +9367,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G402" t="str" s="2">
-        <x:v>2022-11-10 08:11:04</x:v>
+        <x:v>2022-11-10 08:23:27</x:v>
       </x:c>
     </x:row>
     <x:row r="403">
@@ -9390,7 +9390,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G403" t="str" s="2">
-        <x:v>2022-11-10 18:50:43</x:v>
+        <x:v>2022-11-10 20:53:41</x:v>
       </x:c>
     </x:row>
     <x:row r="404">
@@ -9413,7 +9413,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G404" t="str" s="2">
-        <x:v>2022-11-11 08:11:09</x:v>
+        <x:v>2022-11-11 08:22:56</x:v>
       </x:c>
     </x:row>
     <x:row r="405">
@@ -9436,7 +9436,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G405" t="str" s="2">
-        <x:v>2022-11-11 18:46:35</x:v>
+        <x:v>2022-11-11 20:56:23</x:v>
       </x:c>
     </x:row>
     <x:row r="406">
@@ -9459,7 +9459,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G406" t="str" s="2">
-        <x:v>2022-11-12 08:07:37</x:v>
+        <x:v>2022-11-12 08:26:51</x:v>
       </x:c>
     </x:row>
     <x:row r="407">
@@ -9482,7 +9482,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G407" t="str" s="2">
-        <x:v>2022-11-12 16:10:08</x:v>
+        <x:v>2022-11-12 18:00:55</x:v>
       </x:c>
     </x:row>
     <x:row r="408">
@@ -9505,7 +9505,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G408" t="str" s="2">
-        <x:v>2022-11-16 08:18:45</x:v>
+        <x:v>2022-11-16 08:21:06</x:v>
       </x:c>
     </x:row>
     <x:row r="409">
@@ -9528,7 +9528,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G409" t="str" s="2">
-        <x:v>2022-11-16 18:51:22</x:v>
+        <x:v>2022-11-16 20:51:26</x:v>
       </x:c>
     </x:row>
     <x:row r="410">
@@ -9551,7 +9551,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G410" t="str" s="2">
-        <x:v>2022-11-17 08:14:16</x:v>
+        <x:v>2022-11-17 08:27:11</x:v>
       </x:c>
     </x:row>
     <x:row r="411">
@@ -9574,7 +9574,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G411" t="str" s="2">
-        <x:v>2022-11-17 16:28:11</x:v>
+        <x:v>2022-11-17 17:57:44</x:v>
       </x:c>
     </x:row>
     <x:row r="412">
@@ -9597,7 +9597,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G412" t="str" s="2">
-        <x:v>2022-11-18 08:20:43</x:v>
+        <x:v>2022-11-18 08:28:08</x:v>
       </x:c>
     </x:row>
     <x:row r="413">
@@ -9620,7 +9620,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G413" t="str" s="2">
-        <x:v>2022-11-18 16:30:33</x:v>
+        <x:v>2022-11-18 17:59:00</x:v>
       </x:c>
     </x:row>
     <x:row r="414">
@@ -9643,7 +9643,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G414" t="str" s="2">
-        <x:v>2022-11-19 08:26:20</x:v>
+        <x:v>2022-11-19 08:26:52</x:v>
       </x:c>
     </x:row>
     <x:row r="415">
@@ -9666,7 +9666,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G415" t="str" s="2">
-        <x:v>2022-11-19 18:56:41</x:v>
+        <x:v>2022-11-19 21:01:42</x:v>
       </x:c>
     </x:row>
     <x:row r="416">
@@ -9689,7 +9689,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G416" t="str" s="2">
-        <x:v>2022-11-20 08:06:41</x:v>
+        <x:v>2022-11-20 08:24:41</x:v>
       </x:c>
     </x:row>
     <x:row r="417">
@@ -9712,7 +9712,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G417" t="str" s="2">
-        <x:v>2022-11-20 16:13:33</x:v>
+        <x:v>2022-11-20 17:57:59</x:v>
       </x:c>
     </x:row>
     <x:row r="418">
@@ -9735,7 +9735,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G418" t="str" s="2">
-        <x:v>2022-11-21 08:05:12</x:v>
+        <x:v>2022-11-21 08:21:20</x:v>
       </x:c>
     </x:row>
     <x:row r="419">
@@ -9758,7 +9758,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G419" t="str" s="2">
-        <x:v>2022-11-21 18:46:40</x:v>
+        <x:v>2022-11-21 20:51:53</x:v>
       </x:c>
     </x:row>
     <x:row r="420">
@@ -9781,7 +9781,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G420" t="str" s="2">
-        <x:v>2022-11-23 08:28:43</x:v>
+        <x:v>2022-11-23 08:26:10</x:v>
       </x:c>
     </x:row>
     <x:row r="421">
@@ -9804,7 +9804,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G421" t="str" s="2">
-        <x:v>2022-11-23 19:07:32</x:v>
+        <x:v>2022-11-23 20:57:51</x:v>
       </x:c>
     </x:row>
     <x:row r="422">
@@ -9827,7 +9827,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G422" t="str" s="2">
-        <x:v>2022-11-24 08:14:47</x:v>
+        <x:v>2022-11-24 08:26:20</x:v>
       </x:c>
     </x:row>
     <x:row r="423">
@@ -9850,7 +9850,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G423" t="str" s="2">
-        <x:v>2022-11-24 18:51:04</x:v>
+        <x:v>2022-11-24 21:00:18</x:v>
       </x:c>
     </x:row>
     <x:row r="424">
@@ -9873,7 +9873,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G424" t="str" s="2">
-        <x:v>2022-11-26 08:28:46</x:v>
+        <x:v>2022-11-26 08:28:57</x:v>
       </x:c>
     </x:row>
     <x:row r="425">
@@ -9896,7 +9896,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G425" t="str" s="2">
-        <x:v>2022-11-26 19:13:27</x:v>
+        <x:v>2022-11-26 21:03:35</x:v>
       </x:c>
     </x:row>
     <x:row r="426">
@@ -9919,7 +9919,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G426" t="str" s="2">
-        <x:v>2022-11-28 08:06:04</x:v>
+        <x:v>2022-11-28 08:21:27</x:v>
       </x:c>
     </x:row>
     <x:row r="427">
@@ -9942,7 +9942,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G427" t="str" s="2">
-        <x:v>2022-11-28 16:10:02</x:v>
+        <x:v>2022-11-28 17:52:54</x:v>
       </x:c>
     </x:row>
     <x:row r="428">
@@ -9965,7 +9965,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G428" t="str" s="2">
-        <x:v>2022-11-29 08:15:21</x:v>
+        <x:v>2022-11-29 08:24:22</x:v>
       </x:c>
     </x:row>
     <x:row r="429">
@@ -9988,7 +9988,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G429" t="str" s="2">
-        <x:v>2022-11-29 16:24:56</x:v>
+        <x:v>2022-11-29 17:55:32</x:v>
       </x:c>
     </x:row>
     <x:row r="430">
@@ -10011,7 +10011,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G430" t="str" s="2">
-        <x:v>2022-11-01 08:17:58</x:v>
+        <x:v>2022-11-01 08:21:49</x:v>
       </x:c>
     </x:row>
     <x:row r="431">
@@ -10034,7 +10034,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G431" t="str" s="2">
-        <x:v>2022-11-01 16:21:31</x:v>
+        <x:v>2022-11-01 17:56:07</x:v>
       </x:c>
     </x:row>
     <x:row r="432">
@@ -10057,7 +10057,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G432" t="str" s="2">
-        <x:v>2022-11-03 08:26:05</x:v>
+        <x:v>2022-11-03 08:24:51</x:v>
       </x:c>
     </x:row>
     <x:row r="433">
@@ -10080,7 +10080,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G433" t="str" s="2">
-        <x:v>2022-11-03 16:32:44</x:v>
+        <x:v>2022-11-03 17:55:54</x:v>
       </x:c>
     </x:row>
     <x:row r="434">
@@ -10103,7 +10103,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G434" t="str" s="2">
-        <x:v>2022-11-04 08:15:42</x:v>
+        <x:v>2022-11-04 08:23:09</x:v>
       </x:c>
     </x:row>
     <x:row r="435">
@@ -10126,7 +10126,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G435" t="str" s="2">
-        <x:v>2022-11-04 16:16:38</x:v>
+        <x:v>2022-11-04 17:53:30</x:v>
       </x:c>
     </x:row>
     <x:row r="436">
@@ -10149,7 +10149,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G436" t="str" s="2">
-        <x:v>2022-11-05 08:23:23</x:v>
+        <x:v>2022-11-05 08:26:42</x:v>
       </x:c>
     </x:row>
     <x:row r="437">
@@ -10172,7 +10172,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G437" t="str" s="2">
-        <x:v>2022-11-05 16:37:38</x:v>
+        <x:v>2022-11-05 18:01:31</x:v>
       </x:c>
     </x:row>
     <x:row r="438">
@@ -10195,7 +10195,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G438" t="str" s="2">
-        <x:v>2022-11-07 08:07:30</x:v>
+        <x:v>2022-11-07 08:22:13</x:v>
       </x:c>
     </x:row>
     <x:row r="439">
@@ -10218,7 +10218,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G439" t="str" s="2">
-        <x:v>2022-11-07 16:08:05</x:v>
+        <x:v>2022-11-07 17:55:13</x:v>
       </x:c>
     </x:row>
     <x:row r="440">
@@ -10241,7 +10241,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G440" t="str" s="2">
-        <x:v>2022-11-08 08:16:40</x:v>
+        <x:v>2022-11-08 08:26:00</x:v>
       </x:c>
     </x:row>
     <x:row r="441">
@@ -10264,7 +10264,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G441" t="str" s="2">
-        <x:v>2022-11-08 20:21:30</x:v>
+        <x:v>2022-11-08 22:27:27</x:v>
       </x:c>
     </x:row>
     <x:row r="442">
@@ -10287,7 +10287,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G442" t="str" s="2">
-        <x:v>2022-11-09 08:19:57</x:v>
+        <x:v>2022-11-09 08:27:17</x:v>
       </x:c>
     </x:row>
     <x:row r="443">
@@ -10310,7 +10310,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G443" t="str" s="2">
-        <x:v>2022-11-09 19:00:15</x:v>
+        <x:v>2022-11-09 20:59:02</x:v>
       </x:c>
     </x:row>
     <x:row r="444">
@@ -10333,7 +10333,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G444" t="str" s="2">
-        <x:v>2022-11-11 08:07:47</x:v>
+        <x:v>2022-11-11 08:21:20</x:v>
       </x:c>
     </x:row>
     <x:row r="445">
@@ -10356,7 +10356,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G445" t="str" s="2">
-        <x:v>2022-11-11 18:50:09</x:v>
+        <x:v>2022-11-11 20:52:23</x:v>
       </x:c>
     </x:row>
     <x:row r="446">
@@ -10379,7 +10379,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G446" t="str" s="2">
-        <x:v>2022-11-12 08:14:02</x:v>
+        <x:v>2022-11-12 08:22:02</x:v>
       </x:c>
     </x:row>
     <x:row r="447">
@@ -10402,7 +10402,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G447" t="str" s="2">
-        <x:v>2022-11-12 18:51:40</x:v>
+        <x:v>2022-11-12 20:54:44</x:v>
       </x:c>
     </x:row>
     <x:row r="448">
@@ -10425,7 +10425,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G448" t="str" s="2">
-        <x:v>2022-11-14 08:19:21</x:v>
+        <x:v>2022-11-14 08:25:49</x:v>
       </x:c>
     </x:row>
     <x:row r="449">
@@ -10448,7 +10448,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G449" t="str" s="2">
-        <x:v>2022-11-14 18:54:50</x:v>
+        <x:v>2022-11-14 20:59:33</x:v>
       </x:c>
     </x:row>
     <x:row r="450">
@@ -10471,7 +10471,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G450" t="str" s="2">
-        <x:v>2022-11-15 08:07:32</x:v>
+        <x:v>2022-11-15 08:25:43</x:v>
       </x:c>
     </x:row>
     <x:row r="451">
@@ -10494,7 +10494,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G451" t="str" s="2">
-        <x:v>2022-11-15 16:20:13</x:v>
+        <x:v>2022-11-15 17:57:18</x:v>
       </x:c>
     </x:row>
     <x:row r="452">
@@ -10517,7 +10517,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G452" t="str" s="2">
-        <x:v>2022-11-17 08:17:15</x:v>
+        <x:v>2022-11-17 08:20:52</x:v>
       </x:c>
     </x:row>
     <x:row r="453">
@@ -10540,7 +10540,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G453" t="str" s="2">
-        <x:v>2022-11-17 18:53:40</x:v>
+        <x:v>2022-11-17 20:54:25</x:v>
       </x:c>
     </x:row>
     <x:row r="454">
@@ -10563,7 +10563,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G454" t="str" s="2">
-        <x:v>2022-11-18 08:12:21</x:v>
+        <x:v>2022-11-18 08:23:13</x:v>
       </x:c>
     </x:row>
     <x:row r="455">
@@ -10586,7 +10586,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G455" t="str" s="2">
-        <x:v>2022-11-18 16:15:03</x:v>
+        <x:v>2022-11-18 17:56:00</x:v>
       </x:c>
     </x:row>
     <x:row r="456">
@@ -10609,7 +10609,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G456" t="str" s="2">
-        <x:v>2022-11-19 08:13:10</x:v>
+        <x:v>2022-11-19 08:22:34</x:v>
       </x:c>
     </x:row>
     <x:row r="457">
@@ -10632,7 +10632,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G457" t="str" s="2">
-        <x:v>2022-11-19 16:22:48</x:v>
+        <x:v>2022-11-19 17:55:54</x:v>
       </x:c>
     </x:row>
     <x:row r="458">
@@ -10655,7 +10655,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G458" t="str" s="2">
-        <x:v>2022-11-21 08:08:52</x:v>
+        <x:v>2022-11-21 08:20:06</x:v>
       </x:c>
     </x:row>
     <x:row r="459">
@@ -10678,7 +10678,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G459" t="str" s="2">
-        <x:v>2022-11-21 16:20:03</x:v>
+        <x:v>2022-11-21 17:52:54</x:v>
       </x:c>
     </x:row>
     <x:row r="460">
@@ -10701,7 +10701,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G460" t="str" s="2">
-        <x:v>2022-11-22 08:27:19</x:v>
+        <x:v>2022-11-22 08:25:27</x:v>
       </x:c>
     </x:row>
     <x:row r="461">
@@ -10724,7 +10724,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G461" t="str" s="2">
-        <x:v>2022-11-22 19:05:50</x:v>
+        <x:v>2022-11-22 20:57:04</x:v>
       </x:c>
     </x:row>
     <x:row r="462">
@@ -10747,7 +10747,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G462" t="str" s="2">
-        <x:v>2022-11-24 08:21:36</x:v>
+        <x:v>2022-11-24 08:24:21</x:v>
       </x:c>
     </x:row>
     <x:row r="463">
@@ -10770,7 +10770,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G463" t="str" s="2">
-        <x:v>2022-11-24 16:35:10</x:v>
+        <x:v>2022-11-24 17:59:11</x:v>
       </x:c>
     </x:row>
     <x:row r="464">
@@ -10793,7 +10793,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G464" t="str" s="2">
-        <x:v>2022-11-25 08:05:05</x:v>
+        <x:v>2022-11-25 08:27:57</x:v>
       </x:c>
     </x:row>
     <x:row r="465">
@@ -10816,7 +10816,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G465" t="str" s="2">
-        <x:v>2022-11-25 18:36:39</x:v>
+        <x:v>2022-11-25 21:00:58</x:v>
       </x:c>
     </x:row>
     <x:row r="466">
@@ -10839,7 +10839,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G466" t="str" s="2">
-        <x:v>2022-11-26 08:09:17</x:v>
+        <x:v>2022-11-26 08:27:56</x:v>
       </x:c>
     </x:row>
     <x:row r="467">
@@ -10862,7 +10862,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G467" t="str" s="2">
-        <x:v>2022-11-26 18:53:25</x:v>
+        <x:v>2022-11-26 21:00:44</x:v>
       </x:c>
     </x:row>
     <x:row r="468">
@@ -10885,7 +10885,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G468" t="str" s="2">
-        <x:v>2022-11-28 08:09:23</x:v>
+        <x:v>2022-11-28 08:22:23</x:v>
       </x:c>
     </x:row>
     <x:row r="469">
@@ -10908,7 +10908,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G469" t="str" s="2">
-        <x:v>2022-11-28 18:43:57</x:v>
+        <x:v>2022-11-28 20:55:06</x:v>
       </x:c>
     </x:row>
     <x:row r="470">
@@ -10931,7 +10931,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G470" t="str" s="2">
-        <x:v>2022-11-29 08:22:15</x:v>
+        <x:v>2022-11-29 08:20:12</x:v>
       </x:c>
     </x:row>
     <x:row r="471">
@@ -10954,7 +10954,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G471" t="str" s="2">
-        <x:v>2022-11-29 16:22:49</x:v>
+        <x:v>2022-11-29 17:52:36</x:v>
       </x:c>
     </x:row>
     <x:row r="472">
@@ -10977,7 +10977,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G472" t="str" s="2">
-        <x:v>2022-11-30 08:19:49</x:v>
+        <x:v>2022-11-30 08:20:50</x:v>
       </x:c>
     </x:row>
     <x:row r="473">
@@ -11000,7 +11000,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G473" t="str" s="2">
-        <x:v>2022-11-30 19:04:32</x:v>
+        <x:v>2022-11-30 20:52:42</x:v>
       </x:c>
     </x:row>
     <x:row r="474">
@@ -11023,7 +11023,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G474" t="str" s="2">
-        <x:v>2022-11-01 08:27:53</x:v>
+        <x:v>2022-11-01 08:22:51</x:v>
       </x:c>
     </x:row>
     <x:row r="475">
@@ -11046,7 +11046,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G475" t="str" s="2">
-        <x:v>2022-11-01 19:01:27</x:v>
+        <x:v>2022-11-01 20:53:25</x:v>
       </x:c>
     </x:row>
     <x:row r="476">
@@ -11069,7 +11069,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G476" t="str" s="2">
-        <x:v>2022-11-02 08:16:08</x:v>
+        <x:v>2022-11-02 08:23:01</x:v>
       </x:c>
     </x:row>
     <x:row r="477">
@@ -11092,7 +11092,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G477" t="str" s="2">
-        <x:v>2022-11-02 18:54:36</x:v>
+        <x:v>2022-11-02 20:57:23</x:v>
       </x:c>
     </x:row>
     <x:row r="478">
@@ -11115,7 +11115,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G478" t="str" s="2">
-        <x:v>2022-11-03 08:22:41</x:v>
+        <x:v>2022-11-03 08:26:36</x:v>
       </x:c>
     </x:row>
     <x:row r="479">
@@ -11138,7 +11138,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G479" t="str" s="2">
-        <x:v>2022-11-03 18:56:24</x:v>
+        <x:v>2022-11-03 20:59:32</x:v>
       </x:c>
     </x:row>
     <x:row r="480">
@@ -11161,7 +11161,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G480" t="str" s="2">
-        <x:v>2022-11-04 08:05:36</x:v>
+        <x:v>2022-11-04 08:21:58</x:v>
       </x:c>
     </x:row>
     <x:row r="481">
@@ -11184,7 +11184,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G481" t="str" s="2">
-        <x:v>2022-11-04 18:48:22</x:v>
+        <x:v>2022-11-04 20:56:39</x:v>
       </x:c>
     </x:row>
     <x:row r="482">
@@ -11207,7 +11207,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G482" t="str" s="2">
-        <x:v>2022-11-05 08:10:46</x:v>
+        <x:v>2022-11-05 08:27:12</x:v>
       </x:c>
     </x:row>
     <x:row r="483">
@@ -11230,7 +11230,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G483" t="str" s="2">
-        <x:v>2022-11-05 16:25:34</x:v>
+        <x:v>2022-11-05 17:59:23</x:v>
       </x:c>
     </x:row>
     <x:row r="484">
@@ -11253,7 +11253,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G484" t="str" s="2">
-        <x:v>2022-11-07 08:06:38</x:v>
+        <x:v>2022-11-07 08:22:36</x:v>
       </x:c>
     </x:row>
     <x:row r="485">
@@ -11276,7 +11276,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G485" t="str" s="2">
-        <x:v>2022-11-07 16:19:34</x:v>
+        <x:v>2022-11-07 17:56:48</x:v>
       </x:c>
     </x:row>
     <x:row r="486">
@@ -11299,7 +11299,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G486" t="str" s="2">
-        <x:v>2022-11-08 08:07:18</x:v>
+        <x:v>2022-11-08 08:22:41</x:v>
       </x:c>
     </x:row>
     <x:row r="487">
@@ -11322,7 +11322,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G487" t="str" s="2">
-        <x:v>2022-11-08 18:45:58</x:v>
+        <x:v>2022-11-08 20:53:48</x:v>
       </x:c>
     </x:row>
     <x:row r="488">
@@ -11345,7 +11345,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G488" t="str" s="2">
-        <x:v>2022-11-09 08:06:46</x:v>
+        <x:v>2022-11-09 08:23:50</x:v>
       </x:c>
     </x:row>
     <x:row r="489">
@@ -11368,7 +11368,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G489" t="str" s="2">
-        <x:v>2022-11-09 18:50:36</x:v>
+        <x:v>2022-11-09 20:56:24</x:v>
       </x:c>
     </x:row>
     <x:row r="490">
@@ -11391,7 +11391,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G490" t="str" s="2">
-        <x:v>2022-11-10 08:19:13</x:v>
+        <x:v>2022-11-10 08:28:47</x:v>
       </x:c>
     </x:row>
     <x:row r="491">
@@ -11414,7 +11414,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G491" t="str" s="2">
-        <x:v>2022-11-10 18:52:44</x:v>
+        <x:v>2022-11-10 21:00:14</x:v>
       </x:c>
     </x:row>
     <x:row r="492">
@@ -11437,7 +11437,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G492" t="str" s="2">
-        <x:v>2022-11-11 08:13:35</x:v>
+        <x:v>2022-11-11 08:20:11</x:v>
       </x:c>
     </x:row>
     <x:row r="493">
@@ -11460,7 +11460,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G493" t="str" s="2">
-        <x:v>2022-11-11 16:17:02</x:v>
+        <x:v>2022-11-11 17:51:34</x:v>
       </x:c>
     </x:row>
     <x:row r="494">
@@ -11483,7 +11483,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G494" t="str" s="2">
-        <x:v>2022-11-13 08:19:34</x:v>
+        <x:v>2022-11-13 08:24:23</x:v>
       </x:c>
     </x:row>
     <x:row r="495">
@@ -11506,7 +11506,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G495" t="str" s="2">
-        <x:v>2022-11-13 16:22:16</x:v>
+        <x:v>2022-11-13 17:57:36</x:v>
       </x:c>
     </x:row>
     <x:row r="496">
@@ -11529,7 +11529,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G496" t="str" s="2">
-        <x:v>2022-11-14 08:08:42</x:v>
+        <x:v>2022-11-14 08:24:34</x:v>
       </x:c>
     </x:row>
     <x:row r="497">
@@ -11552,7 +11552,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G497" t="str" s="2">
-        <x:v>2022-11-14 18:39:15</x:v>
+        <x:v>2022-11-14 20:57:03</x:v>
       </x:c>
     </x:row>
     <x:row r="498">
@@ -11575,7 +11575,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G498" t="str" s="2">
-        <x:v>2022-11-15 08:10:46</x:v>
+        <x:v>2022-11-15 08:25:16</x:v>
       </x:c>
     </x:row>
     <x:row r="499">
@@ -11598,7 +11598,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G499" t="str" s="2">
-        <x:v>2022-11-15 18:55:39</x:v>
+        <x:v>2022-11-15 20:59:50</x:v>
       </x:c>
     </x:row>
     <x:row r="500">
@@ -11621,7 +11621,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G500" t="str" s="2">
-        <x:v>2022-11-16 08:08:58</x:v>
+        <x:v>2022-11-16 08:27:53</x:v>
       </x:c>
     </x:row>
     <x:row r="501">
@@ -11644,7 +11644,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G501" t="str" s="2">
-        <x:v>2022-11-16 18:40:19</x:v>
+        <x:v>2022-11-16 20:59:15</x:v>
       </x:c>
     </x:row>
     <x:row r="502">
@@ -11667,7 +11667,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G502" t="str" s="2">
-        <x:v>2022-11-17 08:12:52</x:v>
+        <x:v>2022-11-17 08:28:07</x:v>
       </x:c>
     </x:row>
     <x:row r="503">
@@ -11690,7 +11690,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G503" t="str" s="2">
-        <x:v>2022-11-17 18:49:05</x:v>
+        <x:v>2022-11-17 21:00:22</x:v>
       </x:c>
     </x:row>
     <x:row r="504">
@@ -11713,7 +11713,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G504" t="str" s="2">
-        <x:v>2022-11-18 08:28:18</x:v>
+        <x:v>2022-11-18 08:24:14</x:v>
       </x:c>
     </x:row>
     <x:row r="505">
@@ -11736,7 +11736,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G505" t="str" s="2">
-        <x:v>2022-11-18 16:33:35</x:v>
+        <x:v>2022-11-18 17:58:22</x:v>
       </x:c>
     </x:row>
     <x:row r="506">
@@ -11759,7 +11759,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G506" t="str" s="2">
-        <x:v>2022-11-19 08:18:12</x:v>
+        <x:v>2022-11-19 08:24:58</x:v>
       </x:c>
     </x:row>
     <x:row r="507">
@@ -11782,7 +11782,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G507" t="str" s="2">
-        <x:v>2022-11-19 18:49:59</x:v>
+        <x:v>2022-11-19 20:56:30</x:v>
       </x:c>
     </x:row>
     <x:row r="508">
@@ -11805,7 +11805,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G508" t="str" s="2">
-        <x:v>2022-11-20 08:20:13</x:v>
+        <x:v>2022-11-20 08:23:38</x:v>
       </x:c>
     </x:row>
     <x:row r="509">
@@ -11828,7 +11828,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G509" t="str" s="2">
-        <x:v>2022-11-20 16:32:45</x:v>
+        <x:v>2022-11-20 17:57:22</x:v>
       </x:c>
     </x:row>
     <x:row r="510">
@@ -11851,7 +11851,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G510" t="str" s="2">
-        <x:v>2022-11-21 08:26:02</x:v>
+        <x:v>2022-11-21 08:22:48</x:v>
       </x:c>
     </x:row>
     <x:row r="511">
@@ -11874,7 +11874,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G511" t="str" s="2">
-        <x:v>2022-11-21 19:03:48</x:v>
+        <x:v>2022-11-21 20:56:05</x:v>
       </x:c>
     </x:row>
     <x:row r="512">
@@ -11897,7 +11897,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G512" t="str" s="2">
-        <x:v>2022-11-22 08:25:41</x:v>
+        <x:v>2022-11-22 08:22:40</x:v>
       </x:c>
     </x:row>
     <x:row r="513">
@@ -11920,7 +11920,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G513" t="str" s="2">
-        <x:v>2022-11-22 16:30:58</x:v>
+        <x:v>2022-11-22 17:53:46</x:v>
       </x:c>
     </x:row>
     <x:row r="514">
@@ -11943,7 +11943,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G514" t="str" s="2">
-        <x:v>2022-11-23 08:22:19</x:v>
+        <x:v>2022-11-23 08:24:08</x:v>
       </x:c>
     </x:row>
     <x:row r="515">
@@ -11966,7 +11966,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G515" t="str" s="2">
-        <x:v>2022-11-23 18:54:38</x:v>
+        <x:v>2022-11-23 20:56:32</x:v>
       </x:c>
     </x:row>
     <x:row r="516">
@@ -11989,7 +11989,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G516" t="str" s="2">
-        <x:v>2022-11-24 08:28:02</x:v>
+        <x:v>2022-11-24 08:28:57</x:v>
       </x:c>
     </x:row>
     <x:row r="517">
@@ -12012,7 +12012,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G517" t="str" s="2">
-        <x:v>2022-11-24 16:36:18</x:v>
+        <x:v>2022-11-24 18:03:49</x:v>
       </x:c>
     </x:row>
     <x:row r="518">
@@ -12035,7 +12035,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G518" t="str" s="2">
-        <x:v>2022-11-25 08:09:27</x:v>
+        <x:v>2022-11-25 08:26:13</x:v>
       </x:c>
     </x:row>
     <x:row r="519">
@@ -12058,7 +12058,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G519" t="str" s="2">
-        <x:v>2022-11-25 18:51:53</x:v>
+        <x:v>2022-11-25 20:59:02</x:v>
       </x:c>
     </x:row>
     <x:row r="520">
@@ -12081,7 +12081,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G520" t="str" s="2">
-        <x:v>2022-11-28 08:17:49</x:v>
+        <x:v>2022-11-28 08:23:27</x:v>
       </x:c>
     </x:row>
     <x:row r="521">
@@ -12104,7 +12104,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G521" t="str" s="2">
-        <x:v>2022-11-28 16:21:35</x:v>
+        <x:v>2022-11-28 17:55:15</x:v>
       </x:c>
     </x:row>
     <x:row r="522">
@@ -12127,7 +12127,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G522" t="str" s="2">
-        <x:v>2022-11-29 08:26:07</x:v>
+        <x:v>2022-11-29 08:24:15</x:v>
       </x:c>
     </x:row>
     <x:row r="523">
@@ -12150,7 +12150,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G523" t="str" s="2">
-        <x:v>2022-11-29 19:05:27</x:v>
+        <x:v>2022-11-29 20:55:52</x:v>
       </x:c>
     </x:row>
     <x:row r="524">
@@ -12173,7 +12173,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G524" t="str" s="2">
-        <x:v>2022-11-30 08:17:05</x:v>
+        <x:v>2022-11-30 08:20:11</x:v>
       </x:c>
     </x:row>
     <x:row r="525">
@@ -12196,7 +12196,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G525" t="str" s="2">
-        <x:v>2022-11-30 16:20:23</x:v>
+        <x:v>2022-11-30 17:52:35</x:v>
       </x:c>
     </x:row>
     <x:row r="526">
@@ -12219,7 +12219,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G526" t="str" s="2">
-        <x:v>2022-11-01 08:13:02</x:v>
+        <x:v>2022-11-01 08:28:04</x:v>
       </x:c>
     </x:row>
     <x:row r="527">
@@ -12242,7 +12242,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G527" t="str" s="2">
-        <x:v>2022-11-01 18:49:38</x:v>
+        <x:v>2022-11-01 20:59:54</x:v>
       </x:c>
     </x:row>
     <x:row r="528">
@@ -12265,7 +12265,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G528" t="str" s="2">
-        <x:v>2022-11-02 08:05:29</x:v>
+        <x:v>2022-11-02 08:27:24</x:v>
       </x:c>
     </x:row>
     <x:row r="529">
@@ -12288,7 +12288,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G529" t="str" s="2">
-        <x:v>2022-11-02 18:42:35</x:v>
+        <x:v>2022-11-02 21:00:25</x:v>
       </x:c>
     </x:row>
     <x:row r="530">
@@ -12311,7 +12311,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G530" t="str" s="2">
-        <x:v>2022-11-03 08:26:05</x:v>
+        <x:v>2022-11-03 08:28:44</x:v>
       </x:c>
     </x:row>
     <x:row r="531">
@@ -12334,7 +12334,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G531" t="str" s="2">
-        <x:v>2022-11-03 20:37:53</x:v>
+        <x:v>2022-11-03 22:32:14</x:v>
       </x:c>
     </x:row>
     <x:row r="532">
@@ -12357,7 +12357,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G532" t="str" s="2">
-        <x:v>2022-11-04 08:11:01</x:v>
+        <x:v>2022-11-04 08:22:20</x:v>
       </x:c>
     </x:row>
     <x:row r="533">
@@ -12380,7 +12380,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G533" t="str" s="2">
-        <x:v>2022-11-04 18:43:28</x:v>
+        <x:v>2022-11-04 20:54:21</x:v>
       </x:c>
     </x:row>
     <x:row r="534">
@@ -12403,7 +12403,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G534" t="str" s="2">
-        <x:v>2022-11-05 08:23:11</x:v>
+        <x:v>2022-11-05 08:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="535">
@@ -12426,7 +12426,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G535" t="str" s="2">
-        <x:v>2022-11-05 19:01:43</x:v>
+        <x:v>2022-11-05 20:57:44</x:v>
       </x:c>
     </x:row>
     <x:row r="536">
@@ -12449,7 +12449,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G536" t="str" s="2">
-        <x:v>2022-11-07 08:15:37</x:v>
+        <x:v>2022-11-07 08:26:26</x:v>
       </x:c>
     </x:row>
     <x:row r="537">
@@ -12472,7 +12472,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G537" t="str" s="2">
-        <x:v>2022-11-07 18:58:25</x:v>
+        <x:v>2022-11-07 21:00:27</x:v>
       </x:c>
     </x:row>
     <x:row r="538">
@@ -12495,7 +12495,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G538" t="str" s="2">
-        <x:v>2022-11-08 08:10:54</x:v>
+        <x:v>2022-11-08 08:27:25</x:v>
       </x:c>
     </x:row>
     <x:row r="539">
@@ -12518,7 +12518,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G539" t="str" s="2">
-        <x:v>2022-11-08 20:14:16</x:v>
+        <x:v>2022-11-08 22:29:09</x:v>
       </x:c>
     </x:row>
     <x:row r="540">
@@ -12541,7 +12541,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G540" t="str" s="2">
-        <x:v>2022-11-09 08:27:16</x:v>
+        <x:v>2022-11-09 08:28:41</x:v>
       </x:c>
     </x:row>
     <x:row r="541">
@@ -12564,7 +12564,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G541" t="str" s="2">
-        <x:v>2022-11-09 16:38:33</x:v>
+        <x:v>2022-11-09 17:59:12</x:v>
       </x:c>
     </x:row>
     <x:row r="542">
@@ -12587,7 +12587,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G542" t="str" s="2">
-        <x:v>2022-11-10 08:25:07</x:v>
+        <x:v>2022-11-10 08:28:52</x:v>
       </x:c>
     </x:row>
     <x:row r="543">
@@ -12610,7 +12610,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G543" t="str" s="2">
-        <x:v>2022-11-10 19:05:25</x:v>
+        <x:v>2022-11-10 21:01:36</x:v>
       </x:c>
     </x:row>
     <x:row r="544">
@@ -12633,7 +12633,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G544" t="str" s="2">
-        <x:v>2022-11-12 08:24:58</x:v>
+        <x:v>2022-11-12 08:28:11</x:v>
       </x:c>
     </x:row>
     <x:row r="545">
@@ -12656,7 +12656,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G545" t="str" s="2">
-        <x:v>2022-11-12 16:37:23</x:v>
+        <x:v>2022-11-12 18:01:48</x:v>
       </x:c>
     </x:row>
     <x:row r="546">
@@ -12679,7 +12679,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G546" t="str" s="2">
-        <x:v>2022-11-13 08:25:50</x:v>
+        <x:v>2022-11-13 08:25:16</x:v>
       </x:c>
     </x:row>
     <x:row r="547">
@@ -12702,7 +12702,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G547" t="str" s="2">
-        <x:v>2022-11-13 16:29:16</x:v>
+        <x:v>2022-11-13 17:57:16</x:v>
       </x:c>
     </x:row>
     <x:row r="548">
@@ -12725,7 +12725,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G548" t="str" s="2">
-        <x:v>2022-11-15 08:19:39</x:v>
+        <x:v>2022-11-15 08:27:22</x:v>
       </x:c>
     </x:row>
     <x:row r="549">
@@ -12748,7 +12748,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G549" t="str" s="2">
-        <x:v>2022-11-15 18:56:16</x:v>
+        <x:v>2022-11-15 20:58:03</x:v>
       </x:c>
     </x:row>
     <x:row r="550">
@@ -12771,7 +12771,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G550" t="str" s="2">
-        <x:v>2022-11-16 08:12:45</x:v>
+        <x:v>2022-11-16 08:28:09</x:v>
       </x:c>
     </x:row>
     <x:row r="551">
@@ -12794,7 +12794,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G551" t="str" s="2">
-        <x:v>2022-11-16 18:48:19</x:v>
+        <x:v>2022-11-16 21:02:30</x:v>
       </x:c>
     </x:row>
     <x:row r="552">
@@ -12817,7 +12817,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G552" t="str" s="2">
-        <x:v>2022-11-17 08:25:10</x:v>
+        <x:v>2022-11-17 08:28:47</x:v>
       </x:c>
     </x:row>
     <x:row r="553">
@@ -12840,7 +12840,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G553" t="str" s="2">
-        <x:v>2022-11-17 19:06:26</x:v>
+        <x:v>2022-11-17 21:02:34</x:v>
       </x:c>
     </x:row>
     <x:row r="554">
@@ -12863,7 +12863,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G554" t="str" s="2">
-        <x:v>2022-11-19 08:14:55</x:v>
+        <x:v>2022-11-19 08:23:11</x:v>
       </x:c>
     </x:row>
     <x:row r="555">
@@ -12886,7 +12886,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G555" t="str" s="2">
-        <x:v>2022-11-19 16:25:19</x:v>
+        <x:v>2022-11-19 17:54:45</x:v>
       </x:c>
     </x:row>
     <x:row r="556">
@@ -12909,7 +12909,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G556" t="str" s="2">
-        <x:v>2022-11-21 08:13:08</x:v>
+        <x:v>2022-11-21 08:26:19</x:v>
       </x:c>
     </x:row>
     <x:row r="557">
@@ -12932,7 +12932,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G557" t="str" s="2">
-        <x:v>2022-11-21 18:53:08</x:v>
+        <x:v>2022-11-21 21:01:01</x:v>
       </x:c>
     </x:row>
     <x:row r="558">
@@ -12955,7 +12955,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G558" t="str" s="2">
-        <x:v>2022-11-22 08:25:06</x:v>
+        <x:v>2022-11-22 08:27:57</x:v>
       </x:c>
     </x:row>
     <x:row r="559">
@@ -12978,7 +12978,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G559" t="str" s="2">
-        <x:v>2022-11-22 18:57:12</x:v>
+        <x:v>2022-11-22 20:59:14</x:v>
       </x:c>
     </x:row>
     <x:row r="560">
@@ -13001,7 +13001,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G560" t="str" s="2">
-        <x:v>2022-11-24 08:27:29</x:v>
+        <x:v>2022-11-24 08:25:19</x:v>
       </x:c>
     </x:row>
     <x:row r="561">
@@ -13024,7 +13024,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G561" t="str" s="2">
-        <x:v>2022-11-24 19:03:48</x:v>
+        <x:v>2022-11-24 21:00:04</x:v>
       </x:c>
     </x:row>
     <x:row r="562">
@@ -13047,7 +13047,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G562" t="str" s="2">
-        <x:v>2022-11-25 08:16:20</x:v>
+        <x:v>2022-11-25 08:23:19</x:v>
       </x:c>
     </x:row>
     <x:row r="563">
@@ -13070,7 +13070,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G563" t="str" s="2">
-        <x:v>2022-11-25 18:52:46</x:v>
+        <x:v>2022-11-25 20:54:22</x:v>
       </x:c>
     </x:row>
     <x:row r="564">
@@ -13093,7 +13093,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G564" t="str" s="2">
-        <x:v>2022-11-26 08:16:51</x:v>
+        <x:v>2022-11-26 08:21:38</x:v>
       </x:c>
     </x:row>
     <x:row r="565">
@@ -13116,7 +13116,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G565" t="str" s="2">
-        <x:v>2022-11-26 18:58:58</x:v>
+        <x:v>2022-11-26 20:53:52</x:v>
       </x:c>
     </x:row>
     <x:row r="566">
@@ -13139,7 +13139,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G566" t="str" s="2">
-        <x:v>2022-11-28 08:06:28</x:v>
+        <x:v>2022-11-28 08:26:15</x:v>
       </x:c>
     </x:row>
     <x:row r="567">
@@ -13162,7 +13162,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G567" t="str" s="2">
-        <x:v>2022-11-28 18:41:54</x:v>
+        <x:v>2022-11-28 21:00:58</x:v>
       </x:c>
     </x:row>
     <x:row r="568">
@@ -13185,7 +13185,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G568" t="str" s="2">
-        <x:v>2022-11-29 08:20:37</x:v>
+        <x:v>2022-11-29 08:21:39</x:v>
       </x:c>
     </x:row>
     <x:row r="569">
@@ -13208,7 +13208,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G569" t="str" s="2">
-        <x:v>2022-11-29 19:01:49</x:v>
+        <x:v>2022-11-29 20:54:06</x:v>
       </x:c>
     </x:row>
     <x:row r="570">
@@ -13231,7 +13231,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G570" t="str" s="2">
-        <x:v>2022-11-30 08:15:24</x:v>
+        <x:v>2022-11-30 08:26:15</x:v>
       </x:c>
     </x:row>
     <x:row r="571">
@@ -13254,7 +13254,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G571" t="str" s="2">
-        <x:v>2022-11-30 18:52:33</x:v>
+        <x:v>2022-11-30 21:00:34</x:v>
       </x:c>
     </x:row>
     <x:row r="572">
@@ -13277,7 +13277,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G572" t="str" s="2">
-        <x:v>2022-11-01 08:21:29</x:v>
+        <x:v>2022-11-01 08:24:40</x:v>
       </x:c>
     </x:row>
     <x:row r="573">
@@ -13300,7 +13300,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G573" t="str" s="2">
-        <x:v>2022-11-01 16:27:58</x:v>
+        <x:v>2022-11-01 17:55:32</x:v>
       </x:c>
     </x:row>
     <x:row r="574">
@@ -13323,7 +13323,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G574" t="str" s="2">
-        <x:v>2022-11-02 08:12:21</x:v>
+        <x:v>2022-11-02 08:21:01</x:v>
       </x:c>
     </x:row>
     <x:row r="575">
@@ -13346,7 +13346,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G575" t="str" s="2">
-        <x:v>2022-11-02 18:53:04</x:v>
+        <x:v>2022-11-02 20:54:17</x:v>
       </x:c>
     </x:row>
     <x:row r="576">
@@ -13369,7 +13369,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G576" t="str" s="2">
-        <x:v>2022-11-04 08:26:22</x:v>
+        <x:v>2022-11-04 08:20:58</x:v>
       </x:c>
     </x:row>
     <x:row r="577">
@@ -13392,7 +13392,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G577" t="str" s="2">
-        <x:v>2022-11-04 16:30:18</x:v>
+        <x:v>2022-11-04 17:54:46</x:v>
       </x:c>
     </x:row>
     <x:row r="578">
@@ -13415,7 +13415,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G578" t="str" s="2">
-        <x:v>2022-11-05 08:09:57</x:v>
+        <x:v>2022-11-05 08:23:24</x:v>
       </x:c>
     </x:row>
     <x:row r="579">
@@ -13438,7 +13438,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G579" t="str" s="2">
-        <x:v>2022-11-05 18:54:46</x:v>
+        <x:v>2022-11-05 20:53:24</x:v>
       </x:c>
     </x:row>
     <x:row r="580">
@@ -13461,7 +13461,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G580" t="str" s="2">
-        <x:v>2022-11-07 08:13:43</x:v>
+        <x:v>2022-11-07 08:28:45</x:v>
       </x:c>
     </x:row>
     <x:row r="581">
@@ -13484,7 +13484,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G581" t="str" s="2">
-        <x:v>2022-11-07 16:17:02</x:v>
+        <x:v>2022-11-07 18:00:57</x:v>
       </x:c>
     </x:row>
     <x:row r="582">
@@ -13507,7 +13507,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G582" t="str" s="2">
-        <x:v>2022-11-08 08:20:07</x:v>
+        <x:v>2022-11-08 08:22:44</x:v>
       </x:c>
     </x:row>
     <x:row r="583">
@@ -13530,7 +13530,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G583" t="str" s="2">
-        <x:v>2022-11-08 20:20:16</x:v>
+        <x:v>2022-11-08 22:24:36</x:v>
       </x:c>
     </x:row>
     <x:row r="584">
@@ -13553,7 +13553,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G584" t="str" s="2">
-        <x:v>2022-11-09 08:20:31</x:v>
+        <x:v>2022-11-09 08:21:58</x:v>
       </x:c>
     </x:row>
     <x:row r="585">
@@ -13576,7 +13576,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G585" t="str" s="2">
-        <x:v>2022-11-09 18:59:02</x:v>
+        <x:v>2022-11-09 20:56:38</x:v>
       </x:c>
     </x:row>
     <x:row r="586">
@@ -13599,7 +13599,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G586" t="str" s="2">
-        <x:v>2022-11-10 08:08:31</x:v>
+        <x:v>2022-11-10 08:27:49</x:v>
       </x:c>
     </x:row>
     <x:row r="587">
@@ -13622,7 +13622,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G587" t="str" s="2">
-        <x:v>2022-11-10 18:48:09</x:v>
+        <x:v>2022-11-10 21:01:59</x:v>
       </x:c>
     </x:row>
     <x:row r="588">
@@ -13645,7 +13645,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G588" t="str" s="2">
-        <x:v>2022-11-11 08:08:13</x:v>
+        <x:v>2022-11-11 08:22:19</x:v>
       </x:c>
     </x:row>
     <x:row r="589">
@@ -13668,7 +13668,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G589" t="str" s="2">
-        <x:v>2022-11-11 18:45:57</x:v>
+        <x:v>2022-11-11 20:56:39</x:v>
       </x:c>
     </x:row>
     <x:row r="590">
@@ -13691,7 +13691,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G590" t="str" s="2">
-        <x:v>2022-11-12 08:07:28</x:v>
+        <x:v>2022-11-12 08:23:40</x:v>
       </x:c>
     </x:row>
     <x:row r="591">
@@ -13714,7 +13714,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G591" t="str" s="2">
-        <x:v>2022-11-12 16:14:43</x:v>
+        <x:v>2022-11-12 17:54:08</x:v>
       </x:c>
     </x:row>
     <x:row r="592">
@@ -13737,7 +13737,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G592" t="str" s="2">
-        <x:v>2022-11-13 08:18:04</x:v>
+        <x:v>2022-11-13 08:28:51</x:v>
       </x:c>
     </x:row>
     <x:row r="593">
@@ -13760,7 +13760,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G593" t="str" s="2">
-        <x:v>2022-11-13 16:32:23</x:v>
+        <x:v>2022-11-13 18:00:25</x:v>
       </x:c>
     </x:row>
     <x:row r="594">
@@ -13783,7 +13783,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G594" t="str" s="2">
-        <x:v>2022-11-14 08:12:10</x:v>
+        <x:v>2022-11-14 08:20:41</x:v>
       </x:c>
     </x:row>
     <x:row r="595">
@@ -13806,7 +13806,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G595" t="str" s="2">
-        <x:v>2022-11-14 16:23:46</x:v>
+        <x:v>2022-11-14 17:52:15</x:v>
       </x:c>
     </x:row>
     <x:row r="596">
@@ -13829,7 +13829,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G596" t="str" s="2">
-        <x:v>2022-11-15 08:19:36</x:v>
+        <x:v>2022-11-15 08:27:20</x:v>
       </x:c>
     </x:row>
     <x:row r="597">
@@ -13852,7 +13852,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G597" t="str" s="2">
-        <x:v>2022-11-15 19:00:20</x:v>
+        <x:v>2022-11-15 20:57:51</x:v>
       </x:c>
     </x:row>
     <x:row r="598">
@@ -13875,7 +13875,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G598" t="str" s="2">
-        <x:v>2022-11-17 08:23:37</x:v>
+        <x:v>2022-11-17 08:21:37</x:v>
       </x:c>
     </x:row>
     <x:row r="599">
@@ -13898,7 +13898,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G599" t="str" s="2">
-        <x:v>2022-11-17 16:27:19</x:v>
+        <x:v>2022-11-17 17:52:46</x:v>
       </x:c>
     </x:row>
     <x:row r="600">
@@ -13921,7 +13921,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G600" t="str" s="2">
-        <x:v>2022-11-18 08:19:29</x:v>
+        <x:v>2022-11-18 08:25:48</x:v>
       </x:c>
     </x:row>
     <x:row r="601">
@@ -13944,7 +13944,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G601" t="str" s="2">
-        <x:v>2022-11-18 16:27:33</x:v>
+        <x:v>2022-11-18 17:57:10</x:v>
       </x:c>
     </x:row>
     <x:row r="602">
@@ -13967,7 +13967,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G602" t="str" s="2">
-        <x:v>2022-11-20 08:26:20</x:v>
+        <x:v>2022-11-20 08:24:10</x:v>
       </x:c>
     </x:row>
     <x:row r="603">
@@ -13990,7 +13990,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G603" t="str" s="2">
-        <x:v>2022-11-20 16:36:18</x:v>
+        <x:v>2022-11-20 17:58:48</x:v>
       </x:c>
     </x:row>
     <x:row r="604">
@@ -14013,7 +14013,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G604" t="str" s="2">
-        <x:v>2022-11-22 08:21:16</x:v>
+        <x:v>2022-11-22 08:21:36</x:v>
       </x:c>
     </x:row>
     <x:row r="605">
@@ -14036,7 +14036,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G605" t="str" s="2">
-        <x:v>2022-11-22 18:59:46</x:v>
+        <x:v>2022-11-22 20:53:02</x:v>
       </x:c>
     </x:row>
     <x:row r="606">
@@ -14059,7 +14059,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G606" t="str" s="2">
-        <x:v>2022-11-23 08:21:42</x:v>
+        <x:v>2022-11-23 08:23:22</x:v>
       </x:c>
     </x:row>
     <x:row r="607">
@@ -14082,7 +14082,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G607" t="str" s="2">
-        <x:v>2022-11-23 19:05:12</x:v>
+        <x:v>2022-11-23 20:57:52</x:v>
       </x:c>
     </x:row>
     <x:row r="608">
@@ -14105,7 +14105,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G608" t="str" s="2">
-        <x:v>2022-11-24 08:28:55</x:v>
+        <x:v>2022-11-24 08:26:13</x:v>
       </x:c>
     </x:row>
     <x:row r="609">
@@ -14128,7 +14128,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G609" t="str" s="2">
-        <x:v>2022-11-24 16:40:03</x:v>
+        <x:v>2022-11-24 17:56:56</x:v>
       </x:c>
     </x:row>
     <x:row r="610">
@@ -14151,7 +14151,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G610" t="str" s="2">
-        <x:v>2022-11-25 08:24:51</x:v>
+        <x:v>2022-11-25 08:20:38</x:v>
       </x:c>
     </x:row>
     <x:row r="611">
@@ -14174,7 +14174,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G611" t="str" s="2">
-        <x:v>2022-11-25 19:05:25</x:v>
+        <x:v>2022-11-25 20:52:17</x:v>
       </x:c>
     </x:row>
     <x:row r="612">
@@ -14197,7 +14197,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G612" t="str" s="2">
-        <x:v>2022-11-26 08:20:33</x:v>
+        <x:v>2022-11-26 08:20:54</x:v>
       </x:c>
     </x:row>
     <x:row r="613">
@@ -14220,7 +14220,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G613" t="str" s="2">
-        <x:v>2022-11-26 18:53:05</x:v>
+        <x:v>2022-11-26 20:53:33</x:v>
       </x:c>
     </x:row>
     <x:row r="614">
@@ -14243,7 +14243,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G614" t="str" s="2">
-        <x:v>2022-11-28 08:28:41</x:v>
+        <x:v>2022-11-28 08:24:50</x:v>
       </x:c>
     </x:row>
     <x:row r="615">
@@ -14266,7 +14266,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G615" t="str" s="2">
-        <x:v>2022-11-28 19:07:00</x:v>
+        <x:v>2022-11-28 20:56:59</x:v>
       </x:c>
     </x:row>
     <x:row r="616">
@@ -14289,7 +14289,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G616" t="str" s="2">
-        <x:v>2022-11-29 08:27:03</x:v>
+        <x:v>2022-11-29 08:24:04</x:v>
       </x:c>
     </x:row>
     <x:row r="617">
@@ -14312,7 +14312,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G617" t="str" s="2">
-        <x:v>2022-11-29 19:01:52</x:v>
+        <x:v>2022-11-29 20:55:09</x:v>
       </x:c>
     </x:row>
     <x:row r="618">
@@ -14335,7 +14335,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G618" t="str" s="2">
-        <x:v>2022-11-30 08:13:37</x:v>
+        <x:v>2022-11-30 08:23:36</x:v>
       </x:c>
     </x:row>
     <x:row r="619">
@@ -14358,7 +14358,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G619" t="str" s="2">
-        <x:v>2022-11-30 16:21:19</x:v>
+        <x:v>2022-11-30 17:55:47</x:v>
       </x:c>
     </x:row>
     <x:row r="620">
@@ -14381,7 +14381,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G620" t="str" s="2">
-        <x:v>2022-11-01 08:10:10</x:v>
+        <x:v>2022-11-01 08:27:29</x:v>
       </x:c>
     </x:row>
     <x:row r="621">
@@ -14404,7 +14404,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G621" t="str" s="2">
-        <x:v>2022-11-01 16:14:26</x:v>
+        <x:v>2022-11-01 18:01:55</x:v>
       </x:c>
     </x:row>
     <x:row r="622">
@@ -14427,7 +14427,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G622" t="str" s="2">
-        <x:v>2022-11-03 08:22:44</x:v>
+        <x:v>2022-11-03 08:27:07</x:v>
       </x:c>
     </x:row>
     <x:row r="623">
@@ -14450,7 +14450,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G623" t="str" s="2">
-        <x:v>2022-11-03 20:26:36</x:v>
+        <x:v>2022-11-03 22:30:43</x:v>
       </x:c>
     </x:row>
     <x:row r="624">
@@ -14473,7 +14473,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G624" t="str" s="2">
-        <x:v>2022-11-04 08:12:06</x:v>
+        <x:v>2022-11-04 08:24:37</x:v>
       </x:c>
     </x:row>
     <x:row r="625">
@@ -14496,7 +14496,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G625" t="str" s="2">
-        <x:v>2022-11-04 16:19:26</x:v>
+        <x:v>2022-11-04 17:55:20</x:v>
       </x:c>
     </x:row>
     <x:row r="626">
@@ -14519,7 +14519,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G626" t="str" s="2">
-        <x:v>2022-11-05 08:26:39</x:v>
+        <x:v>2022-11-05 08:26:03</x:v>
       </x:c>
     </x:row>
     <x:row r="627">
@@ -14542,7 +14542,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G627" t="str" s="2">
-        <x:v>2022-11-05 19:04:36</x:v>
+        <x:v>2022-11-05 20:59:54</x:v>
       </x:c>
     </x:row>
     <x:row r="628">
@@ -14565,7 +14565,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G628" t="str" s="2">
-        <x:v>2022-11-07 08:28:02</x:v>
+        <x:v>2022-11-07 08:23:05</x:v>
       </x:c>
     </x:row>
     <x:row r="629">
@@ -14588,7 +14588,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G629" t="str" s="2">
-        <x:v>2022-11-07 19:02:27</x:v>
+        <x:v>2022-11-07 20:53:38</x:v>
       </x:c>
     </x:row>
     <x:row r="630">
@@ -14611,7 +14611,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G630" t="str" s="2">
-        <x:v>2022-11-09 08:06:26</x:v>
+        <x:v>2022-11-09 08:21:44</x:v>
       </x:c>
     </x:row>
     <x:row r="631">
@@ -14634,7 +14634,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G631" t="str" s="2">
-        <x:v>2022-11-09 16:13:01</x:v>
+        <x:v>2022-11-09 17:53:56</x:v>
       </x:c>
     </x:row>
     <x:row r="632">
@@ -14657,7 +14657,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G632" t="str" s="2">
-        <x:v>2022-11-10 08:24:20</x:v>
+        <x:v>2022-11-10 08:27:12</x:v>
       </x:c>
     </x:row>
     <x:row r="633">
@@ -14680,7 +14680,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G633" t="str" s="2">
-        <x:v>2022-11-10 19:03:28</x:v>
+        <x:v>2022-11-10 20:58:55</x:v>
       </x:c>
     </x:row>
     <x:row r="634">
@@ -14703,7 +14703,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G634" t="str" s="2">
-        <x:v>2022-11-11 08:21:29</x:v>
+        <x:v>2022-11-11 08:27:30</x:v>
       </x:c>
     </x:row>
     <x:row r="635">
@@ -14726,7 +14726,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G635" t="str" s="2">
-        <x:v>2022-11-11 19:05:52</x:v>
+        <x:v>2022-11-11 21:01:48</x:v>
       </x:c>
     </x:row>
     <x:row r="636">
@@ -14749,7 +14749,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G636" t="str" s="2">
-        <x:v>2022-11-12 08:07:50</x:v>
+        <x:v>2022-11-12 08:20:24</x:v>
       </x:c>
     </x:row>
     <x:row r="637">
@@ -14772,7 +14772,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G637" t="str" s="2">
-        <x:v>2022-11-12 16:22:25</x:v>
+        <x:v>2022-11-12 17:54:47</x:v>
       </x:c>
     </x:row>
     <x:row r="638">
@@ -14795,7 +14795,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G638" t="str" s="2">
-        <x:v>2022-11-14 08:13:22</x:v>
+        <x:v>2022-11-14 08:23:26</x:v>
       </x:c>
     </x:row>
     <x:row r="639">
@@ -14818,7 +14818,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G639" t="str" s="2">
-        <x:v>2022-11-14 18:53:00</x:v>
+        <x:v>2022-11-14 20:53:42</x:v>
       </x:c>
     </x:row>
     <x:row r="640">
@@ -14841,7 +14841,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G640" t="str" s="2">
-        <x:v>2022-11-15 08:09:45</x:v>
+        <x:v>2022-11-15 08:27:10</x:v>
       </x:c>
     </x:row>
     <x:row r="641">
@@ -14864,7 +14864,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G641" t="str" s="2">
-        <x:v>2022-11-15 18:52:47</x:v>
+        <x:v>2022-11-15 21:01:35</x:v>
       </x:c>
     </x:row>
     <x:row r="642">
@@ -14887,7 +14887,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G642" t="str" s="2">
-        <x:v>2022-11-16 08:21:39</x:v>
+        <x:v>2022-11-16 08:21:45</x:v>
       </x:c>
     </x:row>
     <x:row r="643">
@@ -14910,7 +14910,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G643" t="str" s="2">
-        <x:v>2022-11-16 18:56:58</x:v>
+        <x:v>2022-11-16 20:53:55</x:v>
       </x:c>
     </x:row>
     <x:row r="644">
@@ -14933,7 +14933,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G644" t="str" s="2">
-        <x:v>2022-11-17 08:16:47</x:v>
+        <x:v>2022-11-17 08:21:58</x:v>
       </x:c>
     </x:row>
     <x:row r="645">
@@ -14956,7 +14956,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G645" t="str" s="2">
-        <x:v>2022-11-17 18:56:01</x:v>
+        <x:v>2022-11-17 20:54:25</x:v>
       </x:c>
     </x:row>
     <x:row r="646">
@@ -14979,7 +14979,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G646" t="str" s="2">
-        <x:v>2022-11-18 08:07:27</x:v>
+        <x:v>2022-11-18 08:23:24</x:v>
       </x:c>
     </x:row>
     <x:row r="647">
@@ -15002,7 +15002,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G647" t="str" s="2">
-        <x:v>2022-11-18 16:16:05</x:v>
+        <x:v>2022-11-18 17:55:12</x:v>
       </x:c>
     </x:row>
     <x:row r="648">
@@ -15025,7 +15025,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G648" t="str" s="2">
-        <x:v>2022-11-19 08:18:18</x:v>
+        <x:v>2022-11-19 08:28:55</x:v>
       </x:c>
     </x:row>
     <x:row r="649">
@@ -15048,7 +15048,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G649" t="str" s="2">
-        <x:v>2022-11-19 18:52:23</x:v>
+        <x:v>2022-11-19 21:01:40</x:v>
       </x:c>
     </x:row>
     <x:row r="650">
@@ -15071,7 +15071,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G650" t="str" s="2">
-        <x:v>2022-11-21 08:15:39</x:v>
+        <x:v>2022-11-21 08:21:00</x:v>
       </x:c>
     </x:row>
     <x:row r="651">
@@ -15094,7 +15094,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G651" t="str" s="2">
-        <x:v>2022-11-21 16:22:42</x:v>
+        <x:v>2022-11-21 17:55:53</x:v>
       </x:c>
     </x:row>
     <x:row r="652">
@@ -15117,7 +15117,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G652" t="str" s="2">
-        <x:v>2022-11-23 08:27:05</x:v>
+        <x:v>2022-11-23 08:23:00</x:v>
       </x:c>
     </x:row>
     <x:row r="653">
@@ -15140,7 +15140,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G653" t="str" s="2">
-        <x:v>2022-11-23 18:57:56</x:v>
+        <x:v>2022-11-23 20:57:09</x:v>
       </x:c>
     </x:row>
     <x:row r="654">
@@ -15163,7 +15163,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G654" t="str" s="2">
-        <x:v>2022-11-24 08:14:50</x:v>
+        <x:v>2022-11-24 08:28:04</x:v>
       </x:c>
     </x:row>
     <x:row r="655">
@@ -15186,7 +15186,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G655" t="str" s="2">
-        <x:v>2022-11-24 18:45:07</x:v>
+        <x:v>2022-11-24 20:58:46</x:v>
       </x:c>
     </x:row>
     <x:row r="656">
@@ -15209,7 +15209,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G656" t="str" s="2">
-        <x:v>2022-11-25 08:06:42</x:v>
+        <x:v>2022-11-25 08:27:34</x:v>
       </x:c>
     </x:row>
     <x:row r="657">
@@ -15232,7 +15232,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G657" t="str" s="2">
-        <x:v>2022-11-25 18:49:42</x:v>
+        <x:v>2022-11-25 21:01:37</x:v>
       </x:c>
     </x:row>
     <x:row r="658">
@@ -15255,7 +15255,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G658" t="str" s="2">
-        <x:v>2022-11-28 08:07:54</x:v>
+        <x:v>2022-11-28 08:27:36</x:v>
       </x:c>
     </x:row>
     <x:row r="659">
@@ -15278,7 +15278,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G659" t="str" s="2">
-        <x:v>2022-11-28 16:18:39</x:v>
+        <x:v>2022-11-28 18:02:22</x:v>
       </x:c>
     </x:row>
     <x:row r="660">
@@ -15301,7 +15301,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G660" t="str" s="2">
-        <x:v>2022-11-29 08:25:15</x:v>
+        <x:v>2022-11-29 08:28:38</x:v>
       </x:c>
     </x:row>
     <x:row r="661">
@@ -15324,7 +15324,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G661" t="str" s="2">
-        <x:v>2022-11-29 16:39:59</x:v>
+        <x:v>2022-11-29 18:01:00</x:v>
       </x:c>
     </x:row>
     <x:row r="662">
@@ -15347,7 +15347,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G662" t="str" s="2">
-        <x:v>2022-11-30 08:09:21</x:v>
+        <x:v>2022-11-30 08:28:48</x:v>
       </x:c>
     </x:row>
     <x:row r="663">
@@ -15370,7 +15370,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="G663" t="str" s="2">
-        <x:v>2022-11-30 18:53:44</x:v>
+        <x:v>2022-11-30 20:59:06</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
